--- a/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.691648652612656</v>
+        <v>1.778560859414654</v>
       </c>
       <c r="C2">
-        <v>0.7261573442875999</v>
+        <v>0.346467767894012</v>
       </c>
       <c r="D2">
-        <v>0.05103117970881499</v>
+        <v>0.008774689568836536</v>
       </c>
       <c r="E2">
-        <v>0.2230275638279409</v>
+        <v>0.048902948112719</v>
       </c>
       <c r="F2">
-        <v>2.493224159326985</v>
+        <v>2.534550652674355</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.441828881008817</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1106294081463091</v>
       </c>
       <c r="K2">
-        <v>0.5586757572446928</v>
+        <v>0.4696914793372855</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8801810956816993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4684559978737752</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.805727168858581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.457086242335208</v>
+        <v>1.539660840415365</v>
       </c>
       <c r="C3">
-        <v>0.6240716233278079</v>
+        <v>0.2988181909691718</v>
       </c>
       <c r="D3">
-        <v>0.0498055580732526</v>
+        <v>0.008152000439151763</v>
       </c>
       <c r="E3">
-        <v>0.1932788588491832</v>
+        <v>0.0461277508860185</v>
       </c>
       <c r="F3">
-        <v>2.221251142462123</v>
+        <v>2.346224529689366</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.307942919145631</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1046660547679963</v>
       </c>
       <c r="K3">
-        <v>0.48087058519517</v>
+        <v>0.4059403033374949</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.75708932403505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4085608410760386</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.671255807824721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.315138392694564</v>
+        <v>1.395076535683131</v>
       </c>
       <c r="C4">
-        <v>0.5624989651938961</v>
+        <v>0.2699222423262313</v>
       </c>
       <c r="D4">
-        <v>0.04912265397913984</v>
+        <v>0.0077755884606443</v>
       </c>
       <c r="E4">
-        <v>0.1754979032052049</v>
+        <v>0.04448920529357991</v>
       </c>
       <c r="F4">
-        <v>2.059015168099549</v>
+        <v>2.234868609397807</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.228410127095884</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1011717846267715</v>
       </c>
       <c r="K4">
-        <v>0.4338355549668691</v>
+        <v>0.3673376685398111</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6829730823799665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3723978188112298</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.591801482895249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.257732216124651</v>
+        <v>1.336616144781317</v>
       </c>
       <c r="C5">
-        <v>0.5376427537340192</v>
+        <v>0.2582233965369198</v>
       </c>
       <c r="D5">
-        <v>0.04885994407869987</v>
+        <v>0.007623692615551292</v>
       </c>
       <c r="E5">
-        <v>0.1683576100410207</v>
+        <v>0.04383690424409359</v>
       </c>
       <c r="F5">
-        <v>1.993960352420885</v>
+        <v>2.190472117471231</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.196598032188945</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09978678634644922</v>
       </c>
       <c r="K5">
-        <v>0.4148246006662575</v>
+        <v>0.3517241272082359</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6530843142407718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3577972446218709</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.560136358128432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.248224181037131</v>
+        <v>1.326934629463096</v>
       </c>
       <c r="C6">
-        <v>0.5335284034763959</v>
+        <v>0.2562850359188928</v>
       </c>
       <c r="D6">
-        <v>0.04881720931759759</v>
+        <v>0.007598561084407152</v>
       </c>
       <c r="E6">
-        <v>0.1671778985781245</v>
+        <v>0.04372949268575255</v>
       </c>
       <c r="F6">
-        <v>1.983218111386591</v>
+        <v>2.183156819201372</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.191349738597594</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09955907405731779</v>
       </c>
       <c r="K6">
-        <v>0.4116764747955912</v>
+        <v>0.3491380808639022</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6481388109090673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3553805555731913</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.554919534436777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.314362520638184</v>
+        <v>1.394286348248926</v>
       </c>
       <c r="C7">
-        <v>0.5621628481891321</v>
+        <v>0.2697641759551743</v>
       </c>
       <c r="D7">
-        <v>0.04911905031822883</v>
+        <v>0.007773533871917593</v>
       </c>
       <c r="E7">
-        <v>0.1754011996584168</v>
+        <v>0.0444803470108539</v>
       </c>
       <c r="F7">
-        <v>2.058133707838934</v>
+        <v>2.234266005427031</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.227978769474731</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1011529523111392</v>
       </c>
       <c r="K7">
-        <v>0.4335785708966924</v>
+        <v>0.3671266473038628</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6825687870394219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3722003817897956</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.59137163617072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.610288579018828</v>
+        <v>1.695708354604335</v>
       </c>
       <c r="C8">
-        <v>0.6907005839142357</v>
+        <v>0.3299542429856217</v>
       </c>
       <c r="D8">
-        <v>0.05059290979601272</v>
+        <v>0.008558757658086336</v>
       </c>
       <c r="E8">
-        <v>0.2126592385948953</v>
+        <v>0.04793182966573895</v>
       </c>
       <c r="F8">
-        <v>2.398373338103269</v>
+        <v>2.468669466346981</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.395063307671535</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1085365807925172</v>
       </c>
       <c r="K8">
-        <v>0.5316769146768721</v>
+        <v>0.4475860968617553</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8374016020658885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4476656726446748</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.758672199869366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.211263850265311</v>
+        <v>2.306939913958615</v>
       </c>
       <c r="C9">
-        <v>0.9537700071551285</v>
+        <v>0.4515699658504104</v>
       </c>
       <c r="D9">
-        <v>0.0541340202663747</v>
+        <v>0.0101459604471863</v>
       </c>
       <c r="E9">
-        <v>0.290399797411304</v>
+        <v>0.05527084848370833</v>
       </c>
       <c r="F9">
-        <v>3.110302214819939</v>
+        <v>2.966910840684363</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.747665956718379</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1244971899880056</v>
       </c>
       <c r="K9">
-        <v>0.7313866606890898</v>
+        <v>0.6105909966888206</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.155353723200044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6014122219831748</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.114874134915397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.672083235510684</v>
+        <v>2.773697649034432</v>
       </c>
       <c r="C10">
-        <v>1.157283463403701</v>
+        <v>0.5442300562956746</v>
       </c>
       <c r="D10">
-        <v>0.05729029015991927</v>
+        <v>0.01134262720491108</v>
       </c>
       <c r="E10">
-        <v>0.3516937278791019</v>
+        <v>0.0610904334116853</v>
       </c>
       <c r="F10">
-        <v>3.671653194393201</v>
+        <v>3.363668982884093</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.027834327529291</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1373650848464365</v>
       </c>
       <c r="K10">
-        <v>0.8849516581678216</v>
+        <v>0.7349899982190635</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.402019541355131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7192769756364967</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.399042763161304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.887670047503434</v>
+        <v>2.991257259642509</v>
       </c>
       <c r="C11">
-        <v>1.253023564308933</v>
+        <v>0.5873913016744439</v>
       </c>
       <c r="D11">
-        <v>0.05888901059273621</v>
+        <v>0.01189435494065449</v>
       </c>
       <c r="E11">
-        <v>0.380838151319729</v>
+        <v>0.0638509585803213</v>
       </c>
       <c r="F11">
-        <v>3.938237645540056</v>
+        <v>3.552656924636381</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.161421691055665</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1435274779901903</v>
       </c>
       <c r="K11">
-        <v>0.9569210746492871</v>
+        <v>0.7929614861325689</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.518218671211784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7743183522767723</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.534550498978348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.970336571120072</v>
+        <v>3.074524327281779</v>
       </c>
       <c r="C12">
-        <v>1.289824509271682</v>
+        <v>0.603908210046626</v>
       </c>
       <c r="D12">
-        <v>0.05952209052622948</v>
+        <v>0.01210442021858071</v>
       </c>
       <c r="E12">
-        <v>0.3920908283358457</v>
+        <v>0.06491447746395451</v>
       </c>
       <c r="F12">
-        <v>4.04108385966984</v>
+        <v>3.625617739804085</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.213041926644905</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1459111577590733</v>
       </c>
       <c r="K12">
-        <v>0.9845390151054403</v>
+        <v>0.8151478400572216</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.562907134675868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7953996839691087</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.586889561875537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.952484098908656</v>
+        <v>3.056549804331837</v>
       </c>
       <c r="C13">
-        <v>1.281872858123847</v>
+        <v>0.600342842030841</v>
       </c>
       <c r="D13">
-        <v>0.05938443900417667</v>
+        <v>0.01205912675734666</v>
       </c>
       <c r="E13">
-        <v>0.3896571260485686</v>
+        <v>0.06468458902611474</v>
       </c>
       <c r="F13">
-        <v>4.018844785028136</v>
+        <v>3.609839291077094</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.201875966898442</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1453954621881124</v>
       </c>
       <c r="K13">
-        <v>0.9785737062864968</v>
+        <v>0.8103586063361092</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.553250164434743</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7908482615525472</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.575569598891462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.89444938330189</v>
+        <v>2.998089213069761</v>
       </c>
       <c r="C14">
-        <v>1.256039676204068</v>
+        <v>0.5887465266609127</v>
       </c>
       <c r="D14">
-        <v>0.05894051283090107</v>
+        <v>0.01191161378642747</v>
       </c>
       <c r="E14">
-        <v>0.3817593606042848</v>
+        <v>0.06393807915039673</v>
       </c>
       <c r="F14">
-        <v>3.946659087681866</v>
+        <v>3.558630427566612</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.165646858220612</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1437225451210082</v>
       </c>
       <c r="K14">
-        <v>0.9591855277813437</v>
+        <v>0.7947818680365515</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.521880754036985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7760477419230938</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.53883512722355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.859040921233088</v>
+        <v>2.962399404394091</v>
       </c>
       <c r="C15">
-        <v>1.240290208537431</v>
+        <v>0.5816668134580425</v>
       </c>
       <c r="D15">
-        <v>0.05867233814923623</v>
+        <v>0.01182140881270044</v>
       </c>
       <c r="E15">
-        <v>0.3769510529638964</v>
+        <v>0.06348324635620628</v>
       </c>
       <c r="F15">
-        <v>3.902699345156464</v>
+        <v>3.527450704014626</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.143594954468526</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.142704543221889</v>
       </c>
       <c r="K15">
-        <v>0.9473591696591228</v>
+        <v>0.7852722321743215</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.502759112237712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7670141046095083</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.51647179152333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.658128124758719</v>
+        <v>2.759595596505164</v>
       </c>
       <c r="C16">
-        <v>1.15109775250005</v>
+        <v>0.5414319556420253</v>
       </c>
       <c r="D16">
-        <v>0.05718943614348149</v>
+        <v>0.01130672485189521</v>
       </c>
       <c r="E16">
-        <v>0.3498173175362354</v>
+        <v>0.06091246076453061</v>
       </c>
       <c r="F16">
-        <v>3.654480335858779</v>
+        <v>3.351503531200052</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.019239993789725</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1369690438908648</v>
       </c>
       <c r="K16">
-        <v>0.8802957932194886</v>
+        <v>0.7312321334048875</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.394515181510911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7157113262925421</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.390323146586411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.536514990348621</v>
+        <v>2.636608969491988</v>
       </c>
       <c r="C17">
-        <v>1.097251627272726</v>
+        <v>0.5170262618885317</v>
       </c>
       <c r="D17">
-        <v>0.05632426424018888</v>
+        <v>0.01099291698388782</v>
       </c>
       <c r="E17">
-        <v>0.3335179274859001</v>
+        <v>0.05936563174270049</v>
       </c>
       <c r="F17">
-        <v>3.505268945802726</v>
+        <v>3.245859393863157</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.944624912952747</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1335334328254447</v>
       </c>
       <c r="K17">
-        <v>0.8397361100200627</v>
+        <v>0.6984578358880569</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.329207804525268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6846261099198472</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.314619179632643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.467115445895502</v>
+        <v>2.566353846735069</v>
       </c>
       <c r="C18">
-        <v>1.066572025825167</v>
+        <v>0.503081951302164</v>
       </c>
       <c r="D18">
-        <v>0.05584168306246085</v>
+        <v>0.01081310946182512</v>
       </c>
       <c r="E18">
-        <v>0.3242593048770885</v>
+        <v>0.05848646267893898</v>
       </c>
       <c r="F18">
-        <v>3.420483715539945</v>
+        <v>3.18588430601045</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.902275734447429</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1315860384102265</v>
       </c>
       <c r="K18">
-        <v>0.8166018936434796</v>
+        <v>0.6797346424820034</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.292012579904778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6668785231369441</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.271654876314088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.443707434368037</v>
+        <v>2.542646008701468</v>
       </c>
       <c r="C19">
-        <v>1.056231892065</v>
+        <v>0.4983758728818941</v>
       </c>
       <c r="D19">
-        <v>0.05568075445808063</v>
+        <v>0.01075234557226068</v>
       </c>
       <c r="E19">
-        <v>0.3211435013532835</v>
+        <v>0.05819054481321118</v>
       </c>
       <c r="F19">
-        <v>3.391947082720435</v>
+        <v>3.165708287507584</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.888030237259755</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1309314462247215</v>
       </c>
       <c r="K19">
-        <v>0.8088007616853048</v>
+        <v>0.6734162255297349</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.279478933941348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6608911757407157</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.257203621395206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.549402921002297</v>
+        <v>2.649650170557095</v>
       </c>
       <c r="C20">
-        <v>1.102952873961385</v>
+        <v>0.5196144559022287</v>
       </c>
       <c r="D20">
-        <v>0.05641477778413417</v>
+        <v>0.01102625081749409</v>
       </c>
       <c r="E20">
-        <v>0.3352407473481662</v>
+        <v>0.05952919189922667</v>
       </c>
       <c r="F20">
-        <v>3.52104348863574</v>
+        <v>3.257022587180785</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.952508062983526</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1338961521210678</v>
       </c>
       <c r="K20">
-        <v>0.8440331999273525</v>
+        <v>0.7019332570663082</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.336121052981724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.687921312447493</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.322617232060111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.911466175207579</v>
+        <v>3.01523545288012</v>
       </c>
       <c r="C21">
-        <v>1.263611880827682</v>
+        <v>0.5921477221933742</v>
       </c>
       <c r="D21">
-        <v>0.05907011607243362</v>
+        <v>0.01195491028008178</v>
       </c>
       <c r="E21">
-        <v>0.3840729489421193</v>
+        <v>0.06415683790372029</v>
       </c>
       <c r="F21">
-        <v>3.967807844382094</v>
+        <v>3.573632364231571</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.176258857841987</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1442125122434206</v>
       </c>
       <c r="K21">
-        <v>0.9648698758734753</v>
+        <v>0.7993504863103453</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.531075097006692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7803882560735786</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.549596007064508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.154189645846486</v>
+        <v>3.259379814036606</v>
       </c>
       <c r="C22">
-        <v>1.371849204308944</v>
+        <v>0.6405743699459094</v>
       </c>
       <c r="D22">
-        <v>0.06096938552852293</v>
+        <v>0.01256853120016288</v>
       </c>
       <c r="E22">
-        <v>0.4172689304316251</v>
+        <v>0.06728821665094742</v>
       </c>
       <c r="F22">
-        <v>4.271011530739742</v>
+        <v>3.788783524446558</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.328604797459462</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1512501374283133</v>
       </c>
       <c r="K22">
-        <v>1.046004675345216</v>
+        <v>0.8644007101020321</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.662555178048635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8422287835670375</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.703986958628235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.024022143022876</v>
+        <v>3.128551052014529</v>
       </c>
       <c r="C23">
-        <v>1.31375050464402</v>
+        <v>0.6146246016145369</v>
       </c>
       <c r="D23">
-        <v>0.05993911862435652</v>
+        <v>0.01224038523896454</v>
       </c>
       <c r="E23">
-        <v>0.3994213170906278</v>
+        <v>0.06560646890852695</v>
       </c>
       <c r="F23">
-        <v>4.108054784621316</v>
+        <v>3.673137586089894</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.246679637706748</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1474649280395894</v>
       </c>
       <c r="K23">
-        <v>1.002481090388315</v>
+        <v>0.8295428985341431</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.59196772749209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8090822815782062</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.620985655397533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.543574688392482</v>
+        <v>2.643752846767882</v>
       </c>
       <c r="C24">
-        <v>1.10037448348902</v>
+        <v>0.5184440649080102</v>
       </c>
       <c r="D24">
-        <v>0.0563738107689602</v>
+        <v>0.01101117871314727</v>
       </c>
       <c r="E24">
-        <v>0.3344615138403171</v>
+        <v>0.05945521496017747</v>
       </c>
       <c r="F24">
-        <v>3.513908728872735</v>
+        <v>3.251973349510649</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.948942394997985</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1337320806095903</v>
       </c>
       <c r="K24">
-        <v>0.8420899166776934</v>
+        <v>0.7003616505084622</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.332994488791456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6864311685140976</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.318999581149484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.045832699559611</v>
+        <v>2.138905838557378</v>
       </c>
       <c r="C25">
-        <v>0.8810879749273965</v>
+        <v>0.4181775930531444</v>
       </c>
       <c r="D25">
-        <v>0.05309140904643073</v>
+        <v>0.009711389789650582</v>
       </c>
       <c r="E25">
-        <v>0.2687418601863882</v>
+        <v>0.05321661903780139</v>
       </c>
       <c r="F25">
-        <v>2.911862353601862</v>
+        <v>2.827297259164055</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.649041264532769</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1199976982489588</v>
       </c>
       <c r="K25">
-        <v>0.6763483189650685</v>
+        <v>0.5657938980100639</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.067392162125657</v>
+        <v>0.5590679935602552</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.014985418481913</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.778560859414654</v>
+        <v>2.599877348393477</v>
       </c>
       <c r="C2">
-        <v>0.346467767894012</v>
+        <v>0.451563831507201</v>
       </c>
       <c r="D2">
-        <v>0.008774689568836536</v>
+        <v>0.05585826025973972</v>
       </c>
       <c r="E2">
-        <v>0.048902948112719</v>
+        <v>0.0420465040665019</v>
       </c>
       <c r="F2">
-        <v>2.534550652674355</v>
+        <v>0.685288958967341</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3442445198377087</v>
       </c>
       <c r="J2">
-        <v>0.1106294081463091</v>
+        <v>0.06671578574798076</v>
       </c>
       <c r="K2">
-        <v>0.4696914793372855</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2080610758114503</v>
       </c>
       <c r="M2">
-        <v>0.4684559978737752</v>
+        <v>0.4604288824535701</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.805727168858581</v>
+        <v>1.75186959203694</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.539660840415365</v>
+        <v>2.262087948166368</v>
       </c>
       <c r="C3">
-        <v>0.2988181909691718</v>
+        <v>0.4027898009419175</v>
       </c>
       <c r="D3">
-        <v>0.008152000439151763</v>
+        <v>0.05302042441548593</v>
       </c>
       <c r="E3">
-        <v>0.0461277508860185</v>
+        <v>0.04330419530585572</v>
       </c>
       <c r="F3">
-        <v>2.346224529689366</v>
+        <v>0.6768439346856425</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3596823997611764</v>
       </c>
       <c r="J3">
-        <v>0.1046660547679963</v>
+        <v>0.0683325317532919</v>
       </c>
       <c r="K3">
-        <v>0.4059403033374949</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1894113287071306</v>
       </c>
       <c r="M3">
-        <v>0.4085608410760386</v>
+        <v>0.4022683184942082</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.671255807824721</v>
+        <v>1.738706331347004</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.395076535683131</v>
+        <v>2.054941790346106</v>
       </c>
       <c r="C4">
-        <v>0.2699222423262313</v>
+        <v>0.3728245631135678</v>
       </c>
       <c r="D4">
-        <v>0.0077755884606443</v>
+        <v>0.05131292371122242</v>
       </c>
       <c r="E4">
-        <v>0.04448920529357991</v>
+        <v>0.04411684267860472</v>
       </c>
       <c r="F4">
-        <v>2.234868609397807</v>
+        <v>0.6732422785034657</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3701706968075804</v>
       </c>
       <c r="J4">
-        <v>0.1011717846267715</v>
+        <v>0.06938040858964456</v>
       </c>
       <c r="K4">
-        <v>0.3673376685398111</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1780957573961146</v>
       </c>
       <c r="M4">
-        <v>0.3723978188112298</v>
+        <v>0.3666529618049026</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.591801482895249</v>
+        <v>1.735206797073133</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.336616144781317</v>
+        <v>1.970566315821657</v>
       </c>
       <c r="C5">
-        <v>0.2582233965369198</v>
+        <v>0.3606054485323682</v>
       </c>
       <c r="D5">
-        <v>0.007623692615551292</v>
+        <v>0.05062555651601031</v>
       </c>
       <c r="E5">
-        <v>0.04383690424409359</v>
+        <v>0.04445808408557528</v>
       </c>
       <c r="F5">
-        <v>2.190472117471231</v>
+        <v>0.6721560155657471</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3746895562568611</v>
       </c>
       <c r="J5">
-        <v>0.09978678634644922</v>
+        <v>0.06982116754372747</v>
       </c>
       <c r="K5">
-        <v>0.3517241272082359</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1735163332461411</v>
       </c>
       <c r="M5">
-        <v>0.3577972446218709</v>
+        <v>0.3521584717922153</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.560136358128432</v>
+        <v>1.734882259272766</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.326934629463096</v>
+        <v>1.956557400031556</v>
       </c>
       <c r="C6">
-        <v>0.2562850359188928</v>
+        <v>0.3585758890011164</v>
       </c>
       <c r="D6">
-        <v>0.007598561084407152</v>
+        <v>0.05051192090742163</v>
       </c>
       <c r="E6">
-        <v>0.04372949268575255</v>
+        <v>0.04451535345600766</v>
       </c>
       <c r="F6">
-        <v>2.183156819201372</v>
+        <v>0.6719982052012483</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3754544384392133</v>
       </c>
       <c r="J6">
-        <v>0.09955907405731779</v>
+        <v>0.06989518127429939</v>
       </c>
       <c r="K6">
-        <v>0.3491380808639022</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1727577771113147</v>
       </c>
       <c r="M6">
-        <v>0.3553805555731913</v>
+        <v>0.3497526851118948</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.554919534436777</v>
+        <v>1.734893461404369</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.394286348248926</v>
+        <v>2.053803752128829</v>
       </c>
       <c r="C7">
-        <v>0.2697641759551743</v>
+        <v>0.3726598089354809</v>
       </c>
       <c r="D7">
-        <v>0.007773533871917593</v>
+        <v>0.05130361983585985</v>
       </c>
       <c r="E7">
-        <v>0.0444803470108539</v>
+        <v>0.0441214040691833</v>
       </c>
       <c r="F7">
-        <v>2.234266005427031</v>
+        <v>0.673226105923078</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3702306601825534</v>
       </c>
       <c r="J7">
-        <v>0.1011529523111392</v>
+        <v>0.06938629735871515</v>
       </c>
       <c r="K7">
-        <v>0.3671266473038628</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1780338720137919</v>
       </c>
       <c r="M7">
-        <v>0.3722003817897956</v>
+        <v>0.3664574131963008</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.59137163617072</v>
+        <v>1.735198025473068</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.695708354604335</v>
+        <v>2.483337395167609</v>
       </c>
       <c r="C8">
-        <v>0.3299542429856217</v>
+        <v>0.4347480007511422</v>
       </c>
       <c r="D8">
-        <v>0.008558757658086336</v>
+        <v>0.05487231454528541</v>
       </c>
       <c r="E8">
-        <v>0.04793182966573895</v>
+        <v>0.04247171632275082</v>
       </c>
       <c r="F8">
-        <v>2.468669466346981</v>
+        <v>0.6820380829370194</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3493524452709131</v>
       </c>
       <c r="J8">
-        <v>0.1085365807925172</v>
+        <v>0.06726170091335248</v>
       </c>
       <c r="K8">
-        <v>0.4475860968617553</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.201601101901872</v>
       </c>
       <c r="M8">
-        <v>0.4476656726446748</v>
+        <v>0.4403522133484756</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.758672199869366</v>
+        <v>1.746348379581491</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.306939913958615</v>
+        <v>3.32902604888767</v>
       </c>
       <c r="C9">
-        <v>0.4515699658504104</v>
+        <v>0.5565408483984413</v>
       </c>
       <c r="D9">
-        <v>0.0101459604471863</v>
+        <v>0.06216420448030391</v>
       </c>
       <c r="E9">
-        <v>0.05527084848370833</v>
+        <v>0.03956119305940708</v>
       </c>
       <c r="F9">
-        <v>2.966910840684363</v>
+        <v>0.7126830680512839</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3168466258995117</v>
       </c>
       <c r="J9">
-        <v>0.1244971899880056</v>
+        <v>0.06353974279946151</v>
       </c>
       <c r="K9">
-        <v>0.6105909966888206</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2490036829273237</v>
       </c>
       <c r="M9">
-        <v>0.6014122219831748</v>
+        <v>0.5862633160300845</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.114874134915397</v>
+        <v>1.806998574847654</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.773697649034432</v>
+        <v>3.954453209955318</v>
       </c>
       <c r="C10">
-        <v>0.5442300562956746</v>
+        <v>0.6463225425528094</v>
       </c>
       <c r="D10">
-        <v>0.01134262720491108</v>
+        <v>0.06772561336124738</v>
       </c>
       <c r="E10">
-        <v>0.0610904334116853</v>
+        <v>0.03762603622994876</v>
       </c>
       <c r="F10">
-        <v>3.363668982884093</v>
+        <v>0.7445249469851376</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2987345333941462</v>
       </c>
       <c r="J10">
-        <v>0.1373650848464365</v>
+        <v>0.0610855944182962</v>
       </c>
       <c r="K10">
-        <v>0.7349899982190635</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2847245171737001</v>
       </c>
       <c r="M10">
-        <v>0.7192769756364967</v>
+        <v>0.6944532025846044</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.399042763161304</v>
+        <v>1.878777533714924</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.991257259642509</v>
+        <v>4.240362295264049</v>
       </c>
       <c r="C11">
-        <v>0.5873913016744439</v>
+        <v>0.6872995147031702</v>
       </c>
       <c r="D11">
-        <v>0.01189435494065449</v>
+        <v>0.07030598657542697</v>
       </c>
       <c r="E11">
-        <v>0.0638509585803213</v>
+        <v>0.03679105051015874</v>
       </c>
       <c r="F11">
-        <v>3.552656924636381</v>
+        <v>0.7613166137486544</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2918967106000423</v>
       </c>
       <c r="J11">
-        <v>0.1435274779901903</v>
+        <v>0.06003228584994247</v>
       </c>
       <c r="K11">
-        <v>0.7929614861325689</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.301209965158364</v>
       </c>
       <c r="M11">
-        <v>0.7743183522767723</v>
+        <v>0.7439776920279968</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.534550498978348</v>
+        <v>1.918194181838544</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.074524327281779</v>
+        <v>4.348873425976592</v>
       </c>
       <c r="C12">
-        <v>0.603908210046626</v>
+        <v>0.7028417892389029</v>
       </c>
       <c r="D12">
-        <v>0.01210442021858071</v>
+        <v>0.07129089531179744</v>
       </c>
       <c r="E12">
-        <v>0.06491447746395451</v>
+        <v>0.03648149385236277</v>
       </c>
       <c r="F12">
-        <v>3.625617739804085</v>
+        <v>0.7680320606234758</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2895223711206079</v>
       </c>
       <c r="J12">
-        <v>0.1459111577590733</v>
+        <v>0.0596427069393286</v>
       </c>
       <c r="K12">
-        <v>0.8151478400572216</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3074901086514501</v>
       </c>
       <c r="M12">
-        <v>0.7953996839691087</v>
+        <v>0.76278370944204</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.586889561875537</v>
+        <v>1.934169551735835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.056549804331837</v>
+        <v>4.325492068631206</v>
       </c>
       <c r="C13">
-        <v>0.600342842030841</v>
+        <v>0.6994932647127712</v>
       </c>
       <c r="D13">
-        <v>0.01205912675734666</v>
+        <v>0.07107842295844335</v>
       </c>
       <c r="E13">
-        <v>0.06468458902611474</v>
+        <v>0.03654786543487187</v>
       </c>
       <c r="F13">
-        <v>3.609839291077094</v>
+        <v>0.7665694805107819</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2900239408580809</v>
       </c>
       <c r="J13">
-        <v>0.1453954621881124</v>
+        <v>0.05972619316991867</v>
       </c>
       <c r="K13">
-        <v>0.8103586063361092</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3061358419014368</v>
       </c>
       <c r="M13">
-        <v>0.7908482615525472</v>
+        <v>0.7587310456556224</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.575569598891462</v>
+        <v>1.93068103117244</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.998089213069761</v>
+        <v>4.249284435047002</v>
       </c>
       <c r="C14">
-        <v>0.5887465266609127</v>
+        <v>0.6885776473080512</v>
       </c>
       <c r="D14">
-        <v>0.01191161378642747</v>
+        <v>0.07038685660982935</v>
       </c>
       <c r="E14">
-        <v>0.06393807915039673</v>
+        <v>0.0367654494473646</v>
       </c>
       <c r="F14">
-        <v>3.558630427566612</v>
+        <v>0.7618617963307486</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.291696982859154</v>
       </c>
       <c r="J14">
-        <v>0.1437225451210082</v>
+        <v>0.0600000475757323</v>
       </c>
       <c r="K14">
-        <v>0.7947818680365515</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3017258642777989</v>
       </c>
       <c r="M14">
-        <v>0.7760477419230938</v>
+        <v>0.7455237818364324</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.53883512722355</v>
+        <v>1.919487000714383</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.962399404394091</v>
+        <v>4.202638093904454</v>
       </c>
       <c r="C15">
-        <v>0.5816668134580425</v>
+        <v>0.6818949765629441</v>
       </c>
       <c r="D15">
-        <v>0.01182140881270044</v>
+        <v>0.06996428125559362</v>
       </c>
       <c r="E15">
-        <v>0.06348324635620628</v>
+        <v>0.03689959348093774</v>
       </c>
       <c r="F15">
-        <v>3.527450704014626</v>
+        <v>0.7590254469446833</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2927501842495275</v>
       </c>
       <c r="J15">
-        <v>0.142704543221889</v>
+        <v>0.0601690072209724</v>
       </c>
       <c r="K15">
-        <v>0.7852722321743215</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2990296141329338</v>
       </c>
       <c r="M15">
-        <v>0.7670141046095083</v>
+        <v>0.7374409880363473</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.51647179152333</v>
+        <v>1.912769328297998</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.759595596505164</v>
+        <v>3.935800078514148</v>
       </c>
       <c r="C16">
-        <v>0.5414319556420253</v>
+        <v>0.6436477986790408</v>
       </c>
       <c r="D16">
-        <v>0.01130672485189521</v>
+        <v>0.06755803894962042</v>
       </c>
       <c r="E16">
-        <v>0.06091246076453061</v>
+        <v>0.03768152641009781</v>
       </c>
       <c r="F16">
-        <v>3.351503531200052</v>
+        <v>0.7434760938240643</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2992107318381869</v>
       </c>
       <c r="J16">
-        <v>0.1369690438908648</v>
+        <v>0.06115571813914933</v>
       </c>
       <c r="K16">
-        <v>0.7312321334048875</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2836521975524846</v>
       </c>
       <c r="M16">
-        <v>0.7157113262925421</v>
+        <v>0.6912235208436712</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.390323146586411</v>
+        <v>1.87634408494543</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.636608969491988</v>
+        <v>3.772491047974881</v>
       </c>
       <c r="C17">
-        <v>0.5170262618885317</v>
+        <v>0.6202229004809112</v>
       </c>
       <c r="D17">
-        <v>0.01099291698388782</v>
+        <v>0.06609516982037178</v>
       </c>
       <c r="E17">
-        <v>0.05936563174270049</v>
+        <v>0.03817290710588983</v>
       </c>
       <c r="F17">
-        <v>3.245859393863157</v>
+        <v>0.7345451676213131</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3035423029892286</v>
       </c>
       <c r="J17">
-        <v>0.1335334328254447</v>
+        <v>0.06177734068515761</v>
       </c>
       <c r="K17">
-        <v>0.6984578358880569</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2742815000940624</v>
       </c>
       <c r="M17">
-        <v>0.6846261099198472</v>
+        <v>0.6629549582433256</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.314619179632643</v>
+        <v>1.855783506064711</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.566353846735069</v>
+        <v>3.678688973597389</v>
       </c>
       <c r="C18">
-        <v>0.503081951302164</v>
+        <v>0.6067618343386414</v>
       </c>
       <c r="D18">
-        <v>0.01081310946182512</v>
+        <v>0.06525848225130204</v>
       </c>
       <c r="E18">
-        <v>0.05848646267893898</v>
+        <v>0.03845979534369359</v>
       </c>
       <c r="F18">
-        <v>3.18588430601045</v>
+        <v>0.7296238405789381</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3061647595747168</v>
       </c>
       <c r="J18">
-        <v>0.1315860384102265</v>
+        <v>0.06214080679815126</v>
       </c>
       <c r="K18">
-        <v>0.6797346424820034</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2689136955090703</v>
       </c>
       <c r="M18">
-        <v>0.6668785231369441</v>
+        <v>0.6467241495970413</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.271654876314088</v>
+        <v>1.844589373066697</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.542646008701468</v>
+        <v>3.646950115451489</v>
       </c>
       <c r="C19">
-        <v>0.4983758728818941</v>
+        <v>0.6022060950641333</v>
       </c>
       <c r="D19">
-        <v>0.01075234557226068</v>
+        <v>0.06497598896586254</v>
       </c>
       <c r="E19">
-        <v>0.05819054481321118</v>
+        <v>0.03855765882223983</v>
       </c>
       <c r="F19">
-        <v>3.165708287507584</v>
+        <v>0.7279938406767528</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3070747914720755</v>
       </c>
       <c r="J19">
-        <v>0.1309314462247215</v>
+        <v>0.06226488159496313</v>
       </c>
       <c r="K19">
-        <v>0.6734162255297349</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2670999192137344</v>
       </c>
       <c r="M19">
-        <v>0.6608911757407157</v>
+        <v>0.6412333466549569</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.257203621395206</v>
+        <v>1.840905497692773</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.649650170557095</v>
+        <v>3.789861929886342</v>
       </c>
       <c r="C20">
-        <v>0.5196144559022287</v>
+        <v>0.6227152057959984</v>
       </c>
       <c r="D20">
-        <v>0.01102625081749409</v>
+        <v>0.06625040299241647</v>
       </c>
       <c r="E20">
-        <v>0.05952919189922667</v>
+        <v>0.03812015717233264</v>
       </c>
       <c r="F20">
-        <v>3.257022587180785</v>
+        <v>0.7354733997141736</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.303067541979523</v>
       </c>
       <c r="J20">
-        <v>0.1338961521210678</v>
+        <v>0.0617105531649873</v>
       </c>
       <c r="K20">
-        <v>0.7019332570663082</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2752767279011152</v>
       </c>
       <c r="M20">
-        <v>0.687921312447493</v>
+        <v>0.6659611884515826</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.322617232060111</v>
+        <v>1.857906292754421</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.01523545288012</v>
+        <v>4.271661499431275</v>
       </c>
       <c r="C21">
-        <v>0.5921477221933742</v>
+        <v>0.6917830966174847</v>
       </c>
       <c r="D21">
-        <v>0.01195491028008178</v>
+        <v>0.07058977097909747</v>
       </c>
       <c r="E21">
-        <v>0.06415683790372029</v>
+        <v>0.0367013587368592</v>
       </c>
       <c r="F21">
-        <v>3.573632364231571</v>
+        <v>0.7632346644693015</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2911996228370093</v>
       </c>
       <c r="J21">
-        <v>0.1442125122434206</v>
+        <v>0.05991935610172661</v>
       </c>
       <c r="K21">
-        <v>0.7993504863103453</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3030201352989792</v>
       </c>
       <c r="M21">
-        <v>0.7803882560735786</v>
+        <v>0.7494015940905356</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.549596007064508</v>
+        <v>1.922745848022089</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.259379814036606</v>
+        <v>4.587987208635695</v>
       </c>
       <c r="C22">
-        <v>0.6405743699459094</v>
+        <v>0.7370727978276364</v>
       </c>
       <c r="D22">
-        <v>0.01256853120016288</v>
+        <v>0.07347140289042642</v>
       </c>
       <c r="E22">
-        <v>0.06728821665094742</v>
+        <v>0.03581282036140099</v>
       </c>
       <c r="F22">
-        <v>3.788783524446558</v>
+        <v>0.783470990445835</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2847033681547195</v>
       </c>
       <c r="J22">
-        <v>0.1512501374283133</v>
+        <v>0.05880294204913739</v>
       </c>
       <c r="K22">
-        <v>0.8644007101020321</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3213722564925803</v>
       </c>
       <c r="M22">
-        <v>0.8422287835670375</v>
+        <v>0.8042428843045357</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.703986958628235</v>
+        <v>1.971277061735094</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.128551052014529</v>
+        <v>4.419011395605253</v>
       </c>
       <c r="C23">
-        <v>0.6146246016145369</v>
+        <v>0.7128850770924942</v>
       </c>
       <c r="D23">
-        <v>0.01224038523896454</v>
+        <v>0.07192906603309268</v>
       </c>
       <c r="E23">
-        <v>0.06560646890852695</v>
+        <v>0.0362834662627689</v>
       </c>
       <c r="F23">
-        <v>3.673137586089894</v>
+        <v>0.7724702172400129</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2880505357051746</v>
       </c>
       <c r="J23">
-        <v>0.1474649280395894</v>
+        <v>0.05939375622471665</v>
       </c>
       <c r="K23">
-        <v>0.8295428985341431</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3115559928727549</v>
       </c>
       <c r="M23">
-        <v>0.8090822815782062</v>
+        <v>0.7749421089624065</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.620985655397533</v>
+        <v>1.944785114444414</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.643752846767882</v>
+        <v>3.782008288024429</v>
       </c>
       <c r="C24">
-        <v>0.5184440649080102</v>
+        <v>0.6215884156215736</v>
       </c>
       <c r="D24">
-        <v>0.01101117871314727</v>
+        <v>0.06618020861044016</v>
       </c>
       <c r="E24">
-        <v>0.05945521496017747</v>
+        <v>0.03814399176170324</v>
       </c>
       <c r="F24">
-        <v>3.251973349510649</v>
+        <v>0.735053083850211</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3032817707321662</v>
       </c>
       <c r="J24">
-        <v>0.1337320806095903</v>
+        <v>0.06174072885913517</v>
       </c>
       <c r="K24">
-        <v>0.7003616505084622</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2748267248297367</v>
       </c>
       <c r="M24">
-        <v>0.6864311685140976</v>
+        <v>0.6646020064356932</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.318999581149484</v>
+        <v>1.856944635457381</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.138905838557378</v>
+        <v>3.099681914500536</v>
       </c>
       <c r="C25">
-        <v>0.4181775930531444</v>
+        <v>0.5235612612083003</v>
       </c>
       <c r="D25">
-        <v>0.009711389789650582</v>
+        <v>0.06015763759492643</v>
       </c>
       <c r="E25">
-        <v>0.05321661903780139</v>
+        <v>0.04031328676061952</v>
       </c>
       <c r="F25">
-        <v>2.827297259164055</v>
+        <v>0.7028447984368356</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3246748380371187</v>
       </c>
       <c r="J25">
-        <v>0.1199976982489588</v>
+        <v>0.06449812076208161</v>
       </c>
       <c r="K25">
-        <v>0.5657938980100639</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2360360412325662</v>
       </c>
       <c r="M25">
-        <v>0.5590679935602552</v>
+        <v>0.5466457784821372</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.014985418481913</v>
+        <v>1.78608393139757</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.599877348393477</v>
+        <v>1.255269829918575</v>
       </c>
       <c r="C2">
-        <v>0.451563831507201</v>
+        <v>0.1762097630465576</v>
       </c>
       <c r="D2">
-        <v>0.05585826025973972</v>
+        <v>0.1273133655188019</v>
       </c>
       <c r="E2">
-        <v>0.0420465040665019</v>
+        <v>0.1219173530157218</v>
       </c>
       <c r="F2">
-        <v>0.685288958967341</v>
+        <v>1.582352370776711</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3442445198377087</v>
+        <v>0.9683392973091784</v>
       </c>
       <c r="J2">
-        <v>0.06671578574798076</v>
+        <v>0.1535881532751162</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2080610758114503</v>
+        <v>0.3136387744262805</v>
       </c>
       <c r="M2">
-        <v>0.4604288824535701</v>
+        <v>0.3075114984643506</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.75186959203694</v>
+        <v>4.051546183316816</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.262087948166368</v>
+        <v>1.151776496250534</v>
       </c>
       <c r="C3">
-        <v>0.4027898009419175</v>
+        <v>0.1600266875675231</v>
       </c>
       <c r="D3">
-        <v>0.05302042441548593</v>
+        <v>0.1269731100013587</v>
       </c>
       <c r="E3">
-        <v>0.04330419530585572</v>
+        <v>0.1227890251942423</v>
       </c>
       <c r="F3">
-        <v>0.6768439346856425</v>
+        <v>1.59412817672257</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3596823997611764</v>
+        <v>0.9813925671496264</v>
       </c>
       <c r="J3">
-        <v>0.0683325317532919</v>
+        <v>0.154557706433458</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1894113287071306</v>
+        <v>0.3096592936175284</v>
       </c>
       <c r="M3">
-        <v>0.4022683184942082</v>
+        <v>0.2905356750174946</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.738706331347004</v>
+        <v>4.086702161348541</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.054941790346106</v>
+        <v>1.088267293465037</v>
       </c>
       <c r="C4">
-        <v>0.3728245631135678</v>
+        <v>0.1500344830695042</v>
       </c>
       <c r="D4">
-        <v>0.05131292371122242</v>
+        <v>0.1267937272366275</v>
       </c>
       <c r="E4">
-        <v>0.04411684267860472</v>
+        <v>0.1233555329943685</v>
       </c>
       <c r="F4">
-        <v>0.6732422785034657</v>
+        <v>1.602255175343437</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3701706968075804</v>
+        <v>0.9899683364321525</v>
       </c>
       <c r="J4">
-        <v>0.06938040858964456</v>
+        <v>0.1551909129103066</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1780957573961146</v>
+        <v>0.3073118794476102</v>
       </c>
       <c r="M4">
-        <v>0.3666529618049026</v>
+        <v>0.2801605470758801</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.735206797073133</v>
+        <v>4.11076440573261</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.970566315821657</v>
+        <v>1.062397676822172</v>
       </c>
       <c r="C5">
-        <v>0.3606054485323682</v>
+        <v>0.1459488057901979</v>
       </c>
       <c r="D5">
-        <v>0.05062555651601031</v>
+        <v>0.1267280878340564</v>
       </c>
       <c r="E5">
-        <v>0.04445808408557528</v>
+        <v>0.1235942730178112</v>
       </c>
       <c r="F5">
-        <v>0.6721560155657471</v>
+        <v>1.605792459628852</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3746895562568611</v>
+        <v>0.9936040380864739</v>
       </c>
       <c r="J5">
-        <v>0.06982116754372747</v>
+        <v>0.155458499276774</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1735163332461411</v>
+        <v>0.3063795564470766</v>
       </c>
       <c r="M5">
-        <v>0.3521584717922153</v>
+        <v>0.2759450119318956</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.734882259272766</v>
+        <v>4.121192419656296</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.956557400031556</v>
+        <v>1.058102758662869</v>
       </c>
       <c r="C6">
-        <v>0.3585758890011164</v>
+        <v>0.1452695574817255</v>
       </c>
       <c r="D6">
-        <v>0.05051192090742163</v>
+        <v>0.1267176400490904</v>
       </c>
       <c r="E6">
-        <v>0.04451535345600766</v>
+        <v>0.1236343921565159</v>
       </c>
       <c r="F6">
-        <v>0.6719982052012483</v>
+        <v>1.606393440824093</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3754544384392133</v>
+        <v>0.9942162581111802</v>
       </c>
       <c r="J6">
-        <v>0.06989518127429939</v>
+        <v>0.155503509153851</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1727577771113147</v>
+        <v>0.306226214344143</v>
       </c>
       <c r="M6">
-        <v>0.3497526851118948</v>
+        <v>0.275245784734885</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.734893461404369</v>
+        <v>4.122961571078434</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.053803752128829</v>
+        <v>1.087918360221352</v>
       </c>
       <c r="C7">
-        <v>0.3726598089354809</v>
+        <v>0.1499794376407806</v>
       </c>
       <c r="D7">
-        <v>0.05130361983585985</v>
+        <v>0.1267928117479897</v>
       </c>
       <c r="E7">
-        <v>0.0441214040691833</v>
+        <v>0.1233587207878399</v>
       </c>
       <c r="F7">
-        <v>0.673226105923078</v>
+        <v>1.602301967483456</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3702306601825534</v>
+        <v>0.990016797934409</v>
       </c>
       <c r="J7">
-        <v>0.06938629735871515</v>
+        <v>0.155194482980832</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1780338720137919</v>
+        <v>0.3072992073872172</v>
       </c>
       <c r="M7">
-        <v>0.3664574131963008</v>
+        <v>0.280103644206811</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.735198025473068</v>
+        <v>4.110902521607443</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.483337395167609</v>
+        <v>1.219578884434839</v>
       </c>
       <c r="C8">
-        <v>0.4347480007511422</v>
+        <v>0.1706415448983876</v>
       </c>
       <c r="D8">
-        <v>0.05487231454528541</v>
+        <v>0.1271899351611481</v>
       </c>
       <c r="E8">
-        <v>0.04247171632275082</v>
+        <v>0.1222114179346296</v>
       </c>
       <c r="F8">
-        <v>0.6820380829370194</v>
+        <v>1.586226581612117</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3493524452709131</v>
+        <v>0.9727235898947555</v>
       </c>
       <c r="J8">
-        <v>0.06726170091335248</v>
+        <v>0.1539146017823558</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.201601101901872</v>
+        <v>0.3122467980090917</v>
       </c>
       <c r="M8">
-        <v>0.4403522133484756</v>
+        <v>0.3016484377176383</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.746348379581491</v>
+        <v>4.063153856397236</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.32902604888767</v>
+        <v>1.477984808977794</v>
       </c>
       <c r="C9">
-        <v>0.5565408483984413</v>
+        <v>0.2107090024374827</v>
       </c>
       <c r="D9">
-        <v>0.06216420448030391</v>
+        <v>0.1282016814550246</v>
       </c>
       <c r="E9">
-        <v>0.03956119305940708</v>
+        <v>0.1202092679808815</v>
       </c>
       <c r="F9">
-        <v>0.7126830680512839</v>
+        <v>1.561817346997103</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3168466258995117</v>
+        <v>0.9432656104050565</v>
       </c>
       <c r="J9">
-        <v>0.06353974279946151</v>
+        <v>0.1517045478674941</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2490036829273237</v>
+        <v>0.3227059155216949</v>
       </c>
       <c r="M9">
-        <v>0.5862633160300845</v>
+        <v>0.3442675539321058</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.806998574847654</v>
+        <v>3.989179689005539</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.954453209955318</v>
+        <v>1.667899729086969</v>
       </c>
       <c r="C10">
-        <v>0.6463225425528094</v>
+        <v>0.2398628693835008</v>
       </c>
       <c r="D10">
-        <v>0.06772561336124738</v>
+        <v>0.1290853826186265</v>
       </c>
       <c r="E10">
-        <v>0.03762603622994876</v>
+        <v>0.1188884091111024</v>
       </c>
       <c r="F10">
-        <v>0.7445249469851376</v>
+        <v>1.548222672725061</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2987345333941462</v>
+        <v>0.9243412458260103</v>
       </c>
       <c r="J10">
-        <v>0.0610855944182962</v>
+        <v>0.1502623289237857</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2847245171737001</v>
+        <v>0.3308462316968246</v>
       </c>
       <c r="M10">
-        <v>0.6944532025846044</v>
+        <v>0.3757927740186133</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.878777533714924</v>
+        <v>3.94683564734774</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.240362295264049</v>
+        <v>1.754297375352792</v>
       </c>
       <c r="C11">
-        <v>0.6872995147031702</v>
+        <v>0.2530624431406068</v>
       </c>
       <c r="D11">
-        <v>0.07030598657542697</v>
+        <v>0.129517541250955</v>
       </c>
       <c r="E11">
-        <v>0.03679105051015874</v>
+        <v>0.1183199238024888</v>
       </c>
       <c r="F11">
-        <v>0.7613166137486544</v>
+        <v>1.542980650693423</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2918967106000423</v>
+        <v>0.9163230144484267</v>
       </c>
       <c r="J11">
-        <v>0.06003228584994247</v>
+        <v>0.1496453755647469</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.301209965158364</v>
+        <v>0.334647412772739</v>
       </c>
       <c r="M11">
-        <v>0.7439776920279968</v>
+        <v>0.3901782338861466</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.918194181838544</v>
+        <v>3.9301832282639</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.348873425976592</v>
+        <v>1.787013009736484</v>
       </c>
       <c r="C12">
-        <v>0.7028417892389029</v>
+        <v>0.258051566137425</v>
       </c>
       <c r="D12">
-        <v>0.07129089531179744</v>
+        <v>0.1296854940006753</v>
       </c>
       <c r="E12">
-        <v>0.03648149385236277</v>
+        <v>0.1181092955184306</v>
       </c>
       <c r="F12">
-        <v>0.7680320606234758</v>
+        <v>1.541131153565281</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2895223711206079</v>
+        <v>0.913371714074195</v>
       </c>
       <c r="J12">
-        <v>0.0596427069393286</v>
+        <v>0.1494173569160058</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3074901086514501</v>
+        <v>0.336100817927445</v>
       </c>
       <c r="M12">
-        <v>0.76278370944204</v>
+        <v>0.3956317567994745</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.934169551735835</v>
+        <v>3.924253051532531</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.325492068631206</v>
+        <v>1.779967199694397</v>
       </c>
       <c r="C13">
-        <v>0.6994932647127712</v>
+        <v>0.2569774855626861</v>
       </c>
       <c r="D13">
-        <v>0.07107842295844335</v>
+        <v>0.1296491314901331</v>
       </c>
       <c r="E13">
-        <v>0.03654786543487187</v>
+        <v>0.118154451692384</v>
       </c>
       <c r="F13">
-        <v>0.7665694805107819</v>
+        <v>1.541523446828108</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2900239408580809</v>
+        <v>0.9140035459651727</v>
       </c>
       <c r="J13">
-        <v>0.05972619316991867</v>
+        <v>0.1494662156554654</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3061358419014368</v>
+        <v>0.335787181370037</v>
       </c>
       <c r="M13">
-        <v>0.7587310456556224</v>
+        <v>0.394456978783019</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.93068103117244</v>
+        <v>3.925513503966755</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.249284435047002</v>
+        <v>1.756988946819718</v>
       </c>
       <c r="C14">
-        <v>0.6885776473080512</v>
+        <v>0.2534730885276133</v>
       </c>
       <c r="D14">
-        <v>0.07038685660982935</v>
+        <v>0.1295312727619304</v>
       </c>
       <c r="E14">
-        <v>0.0367654494473646</v>
+        <v>0.1183025022641822</v>
       </c>
       <c r="F14">
-        <v>0.7618617963307486</v>
+        <v>1.542825774707921</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.291696982859154</v>
+        <v>0.9160785044452879</v>
       </c>
       <c r="J14">
-        <v>0.0600000475757323</v>
+        <v>0.1496265040337388</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3017258642777989</v>
+        <v>0.3347667058316262</v>
       </c>
       <c r="M14">
-        <v>0.7455237818364324</v>
+        <v>0.3906267789263822</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.919487000714383</v>
+        <v>3.929687816502508</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.202638093904454</v>
+        <v>1.742913880367894</v>
       </c>
       <c r="C15">
-        <v>0.6818949765629441</v>
+        <v>0.2513253294294486</v>
       </c>
       <c r="D15">
-        <v>0.06996428125559362</v>
+        <v>0.1294596403711523</v>
       </c>
       <c r="E15">
-        <v>0.03689959348093774</v>
+        <v>0.1183937920613136</v>
       </c>
       <c r="F15">
-        <v>0.7590254469446833</v>
+        <v>1.543641141182796</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2927501842495275</v>
+        <v>0.9173605530377742</v>
       </c>
       <c r="J15">
-        <v>0.0601690072209724</v>
+        <v>0.1497254151429033</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2990296141329338</v>
+        <v>0.3341434519743842</v>
       </c>
       <c r="M15">
-        <v>0.7374409880363473</v>
+        <v>0.3882814504083925</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.912769328297998</v>
+        <v>3.932293646929594</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.935800078514148</v>
+        <v>1.662253364477863</v>
       </c>
       <c r="C16">
-        <v>0.6436477986790408</v>
+        <v>0.2389989631050753</v>
       </c>
       <c r="D16">
-        <v>0.06755803894962042</v>
+        <v>0.1290577440684189</v>
       </c>
       <c r="E16">
-        <v>0.03768152641009781</v>
+        <v>0.1189262115519583</v>
       </c>
       <c r="F16">
-        <v>0.7434760938240643</v>
+        <v>1.548584215939414</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2992107318381869</v>
+        <v>0.9248771488939731</v>
       </c>
       <c r="J16">
-        <v>0.06115571813914933</v>
+        <v>0.1503034339890803</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2836521975524846</v>
+        <v>0.3305997788699386</v>
       </c>
       <c r="M16">
-        <v>0.6912235208436712</v>
+        <v>0.3748535167682832</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.87634408494543</v>
+        <v>3.947976478545485</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.772491047974881</v>
+        <v>1.612770512264206</v>
       </c>
       <c r="C17">
-        <v>0.6202229004809112</v>
+        <v>0.2314209021700719</v>
       </c>
       <c r="D17">
-        <v>0.06609516982037178</v>
+        <v>0.1288188944180675</v>
       </c>
       <c r="E17">
-        <v>0.03817290710588983</v>
+        <v>0.1192611187980455</v>
       </c>
       <c r="F17">
-        <v>0.7345451676213131</v>
+        <v>1.551858001861106</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3035423029892286</v>
+        <v>0.9296396700124596</v>
       </c>
       <c r="J17">
-        <v>0.06177734068515761</v>
+        <v>0.1506680369693711</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2742815000940624</v>
+        <v>0.328450887523374</v>
       </c>
       <c r="M17">
-        <v>0.6629549582433256</v>
+        <v>0.3666270678350259</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.855783506064711</v>
+        <v>3.958266184863533</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.678688973597389</v>
+        <v>1.584309811643664</v>
       </c>
       <c r="C18">
-        <v>0.6067618343386414</v>
+        <v>0.2270563187595371</v>
       </c>
       <c r="D18">
-        <v>0.06525848225130204</v>
+        <v>0.1286843550512913</v>
       </c>
       <c r="E18">
-        <v>0.03845979534369359</v>
+        <v>0.1194567970281923</v>
       </c>
       <c r="F18">
-        <v>0.7296238405789381</v>
+        <v>1.553829684505786</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3061647595747168</v>
+        <v>0.9324345257346742</v>
       </c>
       <c r="J18">
-        <v>0.06214080679815126</v>
+        <v>0.1508814300586501</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2689136955090703</v>
+        <v>0.3272241442760873</v>
       </c>
       <c r="M18">
-        <v>0.6467241495970413</v>
+        <v>0.36189963843794</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.844589373066697</v>
+        <v>3.964430202551938</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.646950115451489</v>
+        <v>1.574673656451068</v>
       </c>
       <c r="C19">
-        <v>0.6022060950641333</v>
+        <v>0.2255775432543032</v>
       </c>
       <c r="D19">
-        <v>0.06497598896586254</v>
+        <v>0.1286392912263565</v>
       </c>
       <c r="E19">
-        <v>0.03855765882223983</v>
+        <v>0.1195235742370264</v>
       </c>
       <c r="F19">
-        <v>0.7279938406767528</v>
+        <v>1.554512493118146</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3070747914720755</v>
+        <v>0.9333903583951724</v>
       </c>
       <c r="J19">
-        <v>0.06226488159496313</v>
+        <v>0.1509543143929406</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2670999192137344</v>
+        <v>0.326810381354079</v>
       </c>
       <c r="M19">
-        <v>0.6412333466549569</v>
+        <v>0.3602997447643403</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.840905497692773</v>
+        <v>3.96655941143689</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.789861929886342</v>
+        <v>1.618038005682308</v>
       </c>
       <c r="C20">
-        <v>0.6227152057959984</v>
+        <v>0.2322282104565545</v>
       </c>
       <c r="D20">
-        <v>0.06625040299241647</v>
+        <v>0.1288440266168251</v>
       </c>
       <c r="E20">
-        <v>0.03812015717233264</v>
+        <v>0.1192251519310483</v>
       </c>
       <c r="F20">
-        <v>0.7354733997141736</v>
+        <v>1.551500322588609</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.303067541979523</v>
+        <v>0.9291269384477765</v>
       </c>
       <c r="J20">
-        <v>0.0617105531649873</v>
+        <v>0.1506288432971825</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2752767279011152</v>
+        <v>0.3286786850688941</v>
       </c>
       <c r="M20">
-        <v>0.6659611884515826</v>
+        <v>0.3675023544466924</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.857906292754421</v>
+        <v>3.957145401185301</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.271661499431275</v>
+        <v>1.763738266571579</v>
       </c>
       <c r="C21">
-        <v>0.6917830966174847</v>
+        <v>0.2545026684907725</v>
       </c>
       <c r="D21">
-        <v>0.07058977097909747</v>
+        <v>0.1295657741908727</v>
       </c>
       <c r="E21">
-        <v>0.0367013587368592</v>
+        <v>0.1182588902556403</v>
       </c>
       <c r="F21">
-        <v>0.7632346644693015</v>
+        <v>1.542439570480617</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2911996228370093</v>
+        <v>0.9154667302931152</v>
       </c>
       <c r="J21">
-        <v>0.05991935610172661</v>
+        <v>0.1495792713821835</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3030201352989792</v>
+        <v>0.3350660658260125</v>
       </c>
       <c r="M21">
-        <v>0.7494015940905356</v>
+        <v>0.391751639618974</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.922745848022089</v>
+        <v>3.928451519232596</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.587987208635695</v>
+        <v>1.858953476297529</v>
       </c>
       <c r="C22">
-        <v>0.7370727978276364</v>
+        <v>0.2690061687759169</v>
       </c>
       <c r="D22">
-        <v>0.07347140289042642</v>
+        <v>0.1300625477051511</v>
       </c>
       <c r="E22">
-        <v>0.03581282036140099</v>
+        <v>0.1176544503777284</v>
       </c>
       <c r="F22">
-        <v>0.783470990445835</v>
+        <v>1.537307913591249</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2847033681547195</v>
+        <v>0.9070346637576918</v>
       </c>
       <c r="J22">
-        <v>0.05880294204913739</v>
+        <v>0.1489259965597522</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3213722564925803</v>
+        <v>0.3393220178546557</v>
       </c>
       <c r="M22">
-        <v>0.8042428843045357</v>
+        <v>0.4076351264063334</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.971277061735094</v>
+        <v>3.911888653490905</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.419011395605253</v>
+        <v>1.808136717430443</v>
       </c>
       <c r="C23">
-        <v>0.7128850770924942</v>
+        <v>0.2612704166854485</v>
       </c>
       <c r="D23">
-        <v>0.07192906603309268</v>
+        <v>0.1297951273407634</v>
       </c>
       <c r="E23">
-        <v>0.0362834662627689</v>
+        <v>0.1179745783550263</v>
       </c>
       <c r="F23">
-        <v>0.7724702172400129</v>
+        <v>1.539974469009096</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2880505357051746</v>
+        <v>0.9114896267982608</v>
       </c>
       <c r="J23">
-        <v>0.05939375622471665</v>
+        <v>0.14927167689663</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3115559928727549</v>
+        <v>0.3370431274246499</v>
       </c>
       <c r="M23">
-        <v>0.7749421089624065</v>
+        <v>0.3991547018611001</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.944785114444414</v>
+        <v>3.920528026319658</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.782008288024429</v>
+        <v>1.61565661023235</v>
       </c>
       <c r="C24">
-        <v>0.6215884156215736</v>
+        <v>0.2318632508307985</v>
       </c>
       <c r="D24">
-        <v>0.06618020861044016</v>
+        <v>0.1288326556931096</v>
       </c>
       <c r="E24">
-        <v>0.03814399176170324</v>
+        <v>0.1192414027837674</v>
       </c>
       <c r="F24">
-        <v>0.735053083850211</v>
+        <v>1.551661750480015</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3032817707321662</v>
+        <v>0.9293585674073128</v>
       </c>
       <c r="J24">
-        <v>0.06174072885913517</v>
+        <v>0.1506465509866182</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2748267248297367</v>
+        <v>0.3285756707427652</v>
       </c>
       <c r="M24">
-        <v>0.6646020064356932</v>
+        <v>0.3671066309102358</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.856944635457381</v>
+        <v>3.957651333982852</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.099681914500536</v>
+        <v>1.408062899650133</v>
       </c>
       <c r="C25">
-        <v>0.5235612612083003</v>
+        <v>0.1999188834311667</v>
       </c>
       <c r="D25">
-        <v>0.06015763759492643</v>
+        <v>0.1279032070290782</v>
       </c>
       <c r="E25">
-        <v>0.04031328676061952</v>
+        <v>0.1207244759200994</v>
       </c>
       <c r="F25">
-        <v>0.7028447984368356</v>
+        <v>1.567658865321242</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3246748380371187</v>
+        <v>0.9507576211714124</v>
       </c>
       <c r="J25">
-        <v>0.06449812076208161</v>
+        <v>0.1522704618071167</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2360360412325662</v>
+        <v>0.3197959785234161</v>
       </c>
       <c r="M25">
-        <v>0.5466457784821372</v>
+        <v>0.3326996615312225</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.78608393139757</v>
+        <v>4.007084861261262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.255269829918575</v>
+        <v>2.599877348393591</v>
       </c>
       <c r="C2">
-        <v>0.1762097630465576</v>
+        <v>0.4515638315071726</v>
       </c>
       <c r="D2">
-        <v>0.1273133655188019</v>
+        <v>0.05585826025967577</v>
       </c>
       <c r="E2">
-        <v>0.1219173530157218</v>
+        <v>0.04204650406652366</v>
       </c>
       <c r="F2">
-        <v>1.582352370776711</v>
+        <v>0.6852889589673694</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9683392973091784</v>
+        <v>0.3442445198377087</v>
       </c>
       <c r="J2">
-        <v>0.1535881532751162</v>
+        <v>0.06671578574797365</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3136387744262805</v>
+        <v>0.2080610758114148</v>
       </c>
       <c r="M2">
-        <v>0.3075114984643506</v>
+        <v>0.4604288824535558</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.051546183316816</v>
+        <v>1.751869592037053</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.151776496250534</v>
+        <v>2.262087948166311</v>
       </c>
       <c r="C3">
-        <v>0.1600266875675231</v>
+        <v>0.4027898009420028</v>
       </c>
       <c r="D3">
-        <v>0.1269731100013587</v>
+        <v>0.05302042441573462</v>
       </c>
       <c r="E3">
-        <v>0.1227890251942423</v>
+        <v>0.04330419530583018</v>
       </c>
       <c r="F3">
-        <v>1.59412817672257</v>
+        <v>0.6768439346856496</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9813925671496264</v>
+        <v>0.3596823997611764</v>
       </c>
       <c r="J3">
-        <v>0.154557706433458</v>
+        <v>0.06833253175326703</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3096592936175284</v>
+        <v>0.1894113287071519</v>
       </c>
       <c r="M3">
-        <v>0.2905356750174946</v>
+        <v>0.4022683184942011</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.086702161348541</v>
+        <v>1.738706331346918</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.088267293465037</v>
+        <v>2.054941790346163</v>
       </c>
       <c r="C4">
-        <v>0.1500344830695042</v>
+        <v>0.3728245631135678</v>
       </c>
       <c r="D4">
-        <v>0.1267937272366275</v>
+        <v>0.05131292371098439</v>
       </c>
       <c r="E4">
-        <v>0.1233555329943685</v>
+        <v>0.04411684267860294</v>
       </c>
       <c r="F4">
-        <v>1.602255175343437</v>
+        <v>0.67324227850348</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9899683364321525</v>
+        <v>0.3701706968075982</v>
       </c>
       <c r="J4">
-        <v>0.1551909129103066</v>
+        <v>0.06938040858965522</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3073118794476102</v>
+        <v>0.1780957573962212</v>
       </c>
       <c r="M4">
-        <v>0.2801605470758801</v>
+        <v>0.3666529618048955</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.11076440573261</v>
+        <v>1.735206797073133</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.062397676822172</v>
+        <v>1.970566315821429</v>
       </c>
       <c r="C5">
-        <v>0.1459488057901979</v>
+        <v>0.3606054485326808</v>
       </c>
       <c r="D5">
-        <v>0.1267280878340564</v>
+        <v>0.05062555651616307</v>
       </c>
       <c r="E5">
-        <v>0.1235942730178112</v>
+        <v>0.04445808408558483</v>
       </c>
       <c r="F5">
-        <v>1.605792459628852</v>
+        <v>0.6721560155657755</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9936040380864739</v>
+        <v>0.3746895562568859</v>
       </c>
       <c r="J5">
-        <v>0.155458499276774</v>
+        <v>0.06982116754368484</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3063795564470766</v>
+        <v>0.1735163332463046</v>
       </c>
       <c r="M5">
-        <v>0.2759450119318956</v>
+        <v>0.3521584717922224</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.121192419656296</v>
+        <v>1.734882259272837</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.058102758662869</v>
+        <v>1.9565574000315</v>
       </c>
       <c r="C6">
-        <v>0.1452695574817255</v>
+        <v>0.3585758890008037</v>
       </c>
       <c r="D6">
-        <v>0.1267176400490904</v>
+        <v>0.05051192090749623</v>
       </c>
       <c r="E6">
-        <v>0.1236343921565159</v>
+        <v>0.04451535345600455</v>
       </c>
       <c r="F6">
-        <v>1.606393440824093</v>
+        <v>0.6719982052012554</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9942162581111802</v>
+        <v>0.3754544384392275</v>
       </c>
       <c r="J6">
-        <v>0.155503509153851</v>
+        <v>0.06989518127429406</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.306226214344143</v>
+        <v>0.1727577771111726</v>
       </c>
       <c r="M6">
-        <v>0.275245784734885</v>
+        <v>0.3497526851118806</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.122961571078434</v>
+        <v>1.734893461404369</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.087918360221352</v>
+        <v>2.053803752128886</v>
       </c>
       <c r="C7">
-        <v>0.1499794376407806</v>
+        <v>0.3726598089351398</v>
       </c>
       <c r="D7">
-        <v>0.1267928117479897</v>
+        <v>0.05130361983564313</v>
       </c>
       <c r="E7">
-        <v>0.1233587207878399</v>
+        <v>0.04412140406916754</v>
       </c>
       <c r="F7">
-        <v>1.602301967483456</v>
+        <v>0.6732261059230922</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.990016797934409</v>
+        <v>0.3702306601825534</v>
       </c>
       <c r="J7">
-        <v>0.155194482980832</v>
+        <v>0.06938629735862101</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3072992073872172</v>
+        <v>0.1780338720138275</v>
       </c>
       <c r="M7">
-        <v>0.280103644206811</v>
+        <v>0.3664574131963221</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.110902521607443</v>
+        <v>1.735198025473068</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.219578884434839</v>
+        <v>2.483337395167609</v>
       </c>
       <c r="C8">
-        <v>0.1706415448983876</v>
+        <v>0.4347480007513695</v>
       </c>
       <c r="D8">
-        <v>0.1271899351611481</v>
+        <v>0.05487231454531383</v>
       </c>
       <c r="E8">
-        <v>0.1222114179346296</v>
+        <v>0.0424717163227486</v>
       </c>
       <c r="F8">
-        <v>1.586226581612117</v>
+        <v>0.6820380829370052</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9727235898947555</v>
+        <v>0.3493524452709273</v>
       </c>
       <c r="J8">
-        <v>0.1539146017823558</v>
+        <v>0.06726170091324768</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3122467980090917</v>
+        <v>0.2016011019018649</v>
       </c>
       <c r="M8">
-        <v>0.3016484377176383</v>
+        <v>0.4403522133484898</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.063153856397236</v>
+        <v>1.746348379581491</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.477984808977794</v>
+        <v>3.329026048887499</v>
       </c>
       <c r="C9">
-        <v>0.2107090024374827</v>
+        <v>0.5565408483982139</v>
       </c>
       <c r="D9">
-        <v>0.1282016814550246</v>
+        <v>0.06216420448009785</v>
       </c>
       <c r="E9">
-        <v>0.1202092679808815</v>
+        <v>0.03956119305940398</v>
       </c>
       <c r="F9">
-        <v>1.561817346997103</v>
+        <v>0.7126830680512697</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9432656104050565</v>
+        <v>0.3168466258995224</v>
       </c>
       <c r="J9">
-        <v>0.1517045478674941</v>
+        <v>0.06353974279950059</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3227059155216949</v>
+        <v>0.2490036829272384</v>
       </c>
       <c r="M9">
-        <v>0.3442675539321058</v>
+        <v>0.5862633160300774</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.989179689005539</v>
+        <v>1.806998574847711</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.667899729086969</v>
+        <v>3.954453209955432</v>
       </c>
       <c r="C10">
-        <v>0.2398628693835008</v>
+        <v>0.6463225425530652</v>
       </c>
       <c r="D10">
-        <v>0.1290853826186265</v>
+        <v>0.06772561336120475</v>
       </c>
       <c r="E10">
-        <v>0.1188884091111024</v>
+        <v>0.03762603622993588</v>
       </c>
       <c r="F10">
-        <v>1.548222672725061</v>
+        <v>0.7445249469851234</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9243412458260103</v>
+        <v>0.2987345333941462</v>
       </c>
       <c r="J10">
-        <v>0.1502623289237857</v>
+        <v>0.06108559441832995</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3308462316968246</v>
+        <v>0.2847245171736859</v>
       </c>
       <c r="M10">
-        <v>0.3757927740186133</v>
+        <v>0.6944532025845902</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.94683564734774</v>
+        <v>1.878777533714896</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.754297375352792</v>
+        <v>4.240362295264049</v>
       </c>
       <c r="C11">
-        <v>0.2530624431406068</v>
+        <v>0.6872995147030565</v>
       </c>
       <c r="D11">
-        <v>0.129517541250955</v>
+        <v>0.07030598657532039</v>
       </c>
       <c r="E11">
-        <v>0.1183199238024888</v>
+        <v>0.03679105051015963</v>
       </c>
       <c r="F11">
-        <v>1.542980650693423</v>
+        <v>0.7613166137486544</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9163230144484267</v>
+        <v>0.2918967106000352</v>
       </c>
       <c r="J11">
-        <v>0.1496453755647469</v>
+        <v>0.06003228584994424</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.334647412772739</v>
+        <v>0.3012099651581934</v>
       </c>
       <c r="M11">
-        <v>0.3901782338861466</v>
+        <v>0.7439776920280039</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.9301832282639</v>
+        <v>1.918194181838459</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.787013009736484</v>
+        <v>4.348873425976706</v>
       </c>
       <c r="C12">
-        <v>0.258051566137425</v>
+        <v>0.7028417892391587</v>
       </c>
       <c r="D12">
-        <v>0.1296854940006753</v>
+        <v>0.07129089531168376</v>
       </c>
       <c r="E12">
-        <v>0.1181092955184306</v>
+        <v>0.03648149385234944</v>
       </c>
       <c r="F12">
-        <v>1.541131153565281</v>
+        <v>0.7680320606234758</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.913371714074195</v>
+        <v>0.2895223711206114</v>
       </c>
       <c r="J12">
-        <v>0.1494173569160058</v>
+        <v>0.05964270693927354</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.336100817927445</v>
+        <v>0.3074901086513933</v>
       </c>
       <c r="M12">
-        <v>0.3956317567994745</v>
+        <v>0.7627837094420471</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.924253051532531</v>
+        <v>1.934169551735835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.779967199694397</v>
+        <v>4.32549206863132</v>
       </c>
       <c r="C13">
-        <v>0.2569774855626861</v>
+        <v>0.6994932647127996</v>
       </c>
       <c r="D13">
-        <v>0.1296491314901331</v>
+        <v>0.07107842295873468</v>
       </c>
       <c r="E13">
-        <v>0.118154451692384</v>
+        <v>0.03654786543484123</v>
       </c>
       <c r="F13">
-        <v>1.541523446828108</v>
+        <v>0.7665694805107819</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9140035459651727</v>
+        <v>0.2900239408580596</v>
       </c>
       <c r="J13">
-        <v>0.1494662156554654</v>
+        <v>0.05972619316996663</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.335787181370037</v>
+        <v>0.3061358419013942</v>
       </c>
       <c r="M13">
-        <v>0.394456978783019</v>
+        <v>0.7587310456556224</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.925513503966755</v>
+        <v>1.930681031172469</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.756988946819718</v>
+        <v>4.249284435047173</v>
       </c>
       <c r="C14">
-        <v>0.2534730885276133</v>
+        <v>0.6885776473080227</v>
       </c>
       <c r="D14">
-        <v>0.1295312727619304</v>
+        <v>0.07038685660971566</v>
       </c>
       <c r="E14">
-        <v>0.1183025022641822</v>
+        <v>0.03676544944733262</v>
       </c>
       <c r="F14">
-        <v>1.542825774707921</v>
+        <v>0.7618617963307344</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9160785044452879</v>
+        <v>0.291696982859154</v>
       </c>
       <c r="J14">
-        <v>0.1496265040337388</v>
+        <v>0.06000004757577848</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3347667058316262</v>
+        <v>0.3017258642777279</v>
       </c>
       <c r="M14">
-        <v>0.3906267789263822</v>
+        <v>0.745523781836404</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.929687816502508</v>
+        <v>1.919487000714383</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.742913880367894</v>
+        <v>4.202638093904397</v>
       </c>
       <c r="C15">
-        <v>0.2513253294294486</v>
+        <v>0.6818949765626314</v>
       </c>
       <c r="D15">
-        <v>0.1294596403711523</v>
+        <v>0.06996428125559362</v>
       </c>
       <c r="E15">
-        <v>0.1183937920613136</v>
+        <v>0.03689959348090488</v>
       </c>
       <c r="F15">
-        <v>1.543641141182796</v>
+        <v>0.7590254469447046</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9173605530377742</v>
+        <v>0.2927501842495133</v>
       </c>
       <c r="J15">
-        <v>0.1497254151429033</v>
+        <v>0.06016900722092977</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3341434519743842</v>
+        <v>0.2990296141330333</v>
       </c>
       <c r="M15">
-        <v>0.3882814504083925</v>
+        <v>0.7374409880363615</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.932293646929594</v>
+        <v>1.912769328298054</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.662253364477863</v>
+        <v>3.935800078514092</v>
       </c>
       <c r="C16">
-        <v>0.2389989631050753</v>
+        <v>0.6436477986788702</v>
       </c>
       <c r="D16">
-        <v>0.1290577440684189</v>
+        <v>0.06755803894966306</v>
       </c>
       <c r="E16">
-        <v>0.1189262115519583</v>
+        <v>0.03768152641009692</v>
       </c>
       <c r="F16">
-        <v>1.548584215939414</v>
+        <v>0.7434760938240501</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9248771488939731</v>
+        <v>0.299210731838162</v>
       </c>
       <c r="J16">
-        <v>0.1503034339890803</v>
+        <v>0.06115571813918308</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3305997788699386</v>
+        <v>0.283652197552513</v>
       </c>
       <c r="M16">
-        <v>0.3748535167682832</v>
+        <v>0.6912235208436854</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.947976478545485</v>
+        <v>1.87634408494543</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.612770512264206</v>
+        <v>3.772491047974825</v>
       </c>
       <c r="C17">
-        <v>0.2314209021700719</v>
+        <v>0.6202229004809112</v>
       </c>
       <c r="D17">
-        <v>0.1288188944180675</v>
+        <v>0.06609516982030073</v>
       </c>
       <c r="E17">
-        <v>0.1192611187980455</v>
+        <v>0.03817290710588983</v>
       </c>
       <c r="F17">
-        <v>1.551858001861106</v>
+        <v>0.7345451676213202</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9296396700124596</v>
+        <v>0.3035423029892179</v>
       </c>
       <c r="J17">
-        <v>0.1506680369693711</v>
+        <v>0.06177734068519314</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.328450887523374</v>
+        <v>0.2742815000941476</v>
       </c>
       <c r="M17">
-        <v>0.3666270678350259</v>
+        <v>0.6629549582433185</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.958266184863533</v>
+        <v>1.855783506064711</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.584309811643664</v>
+        <v>3.678688973597559</v>
       </c>
       <c r="C18">
-        <v>0.2270563187595371</v>
+        <v>0.6067618343388119</v>
       </c>
       <c r="D18">
-        <v>0.1286843550512913</v>
+        <v>0.06525848225153652</v>
       </c>
       <c r="E18">
-        <v>0.1194567970281923</v>
+        <v>0.03845979534369448</v>
       </c>
       <c r="F18">
-        <v>1.553829684505786</v>
+        <v>0.7296238405789381</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9324345257346742</v>
+        <v>0.3061647595747203</v>
       </c>
       <c r="J18">
-        <v>0.1508814300586501</v>
+        <v>0.06214080679815481</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3272241442760873</v>
+        <v>0.2689136955090135</v>
       </c>
       <c r="M18">
-        <v>0.36189963843794</v>
+        <v>0.6467241495970484</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.964430202551938</v>
+        <v>1.844589373066668</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.574673656451068</v>
+        <v>3.646950115451432</v>
       </c>
       <c r="C19">
-        <v>0.2255775432543032</v>
+        <v>0.6022060950644459</v>
       </c>
       <c r="D19">
-        <v>0.1286392912263565</v>
+        <v>0.06497598896602597</v>
       </c>
       <c r="E19">
-        <v>0.1195235742370264</v>
+        <v>0.03855765882223894</v>
       </c>
       <c r="F19">
-        <v>1.554512493118146</v>
+        <v>0.7279938406767386</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9333903583951724</v>
+        <v>0.3070747914720613</v>
       </c>
       <c r="J19">
-        <v>0.1509543143929406</v>
+        <v>0.06226488159498444</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.326810381354079</v>
+        <v>0.2670999192136918</v>
       </c>
       <c r="M19">
-        <v>0.3602997447643403</v>
+        <v>0.6412333466549569</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.96655941143689</v>
+        <v>1.840905497692717</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.618038005682308</v>
+        <v>3.789861929886342</v>
       </c>
       <c r="C20">
-        <v>0.2322282104565545</v>
+        <v>0.6227152057962542</v>
       </c>
       <c r="D20">
-        <v>0.1288440266168251</v>
+        <v>0.06625040299223173</v>
       </c>
       <c r="E20">
-        <v>0.1192251519310483</v>
+        <v>0.03812015717232997</v>
       </c>
       <c r="F20">
-        <v>1.551500322588609</v>
+        <v>0.7354733997141878</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9291269384477765</v>
+        <v>0.3030675419795443</v>
       </c>
       <c r="J20">
-        <v>0.1506288432971825</v>
+        <v>0.06171055316504592</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3286786850688941</v>
+        <v>0.275276727901101</v>
       </c>
       <c r="M20">
-        <v>0.3675023544466924</v>
+        <v>0.6659611884515968</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.957145401185301</v>
+        <v>1.85790629275445</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.763738266571579</v>
+        <v>4.271661499431161</v>
       </c>
       <c r="C21">
-        <v>0.2545026684907725</v>
+        <v>0.6917830966179679</v>
       </c>
       <c r="D21">
-        <v>0.1295657741908727</v>
+        <v>0.07058977097909747</v>
       </c>
       <c r="E21">
-        <v>0.1182588902556403</v>
+        <v>0.0367013587368592</v>
       </c>
       <c r="F21">
-        <v>1.542439570480617</v>
+        <v>0.7632346644693158</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9154667302931152</v>
+        <v>0.2911996228370164</v>
       </c>
       <c r="J21">
-        <v>0.1495792713821835</v>
+        <v>0.0599193561017195</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3350660658260125</v>
+        <v>0.3030201352988655</v>
       </c>
       <c r="M21">
-        <v>0.391751639618974</v>
+        <v>0.7494015940905427</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.928451519232596</v>
+        <v>1.922745848022089</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.858953476297529</v>
+        <v>4.587987208635582</v>
       </c>
       <c r="C22">
-        <v>0.2690061687759169</v>
+        <v>0.73707279782775</v>
       </c>
       <c r="D22">
-        <v>0.1300625477051511</v>
+        <v>0.07347140289041931</v>
       </c>
       <c r="E22">
-        <v>0.1176544503777284</v>
+        <v>0.0358128203613659</v>
       </c>
       <c r="F22">
-        <v>1.537307913591249</v>
+        <v>0.7834709904458492</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9070346637576918</v>
+        <v>0.2847033681547444</v>
       </c>
       <c r="J22">
-        <v>0.1489259965597522</v>
+        <v>0.05880294204917291</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3393220178546557</v>
+        <v>0.3213722564926229</v>
       </c>
       <c r="M22">
-        <v>0.4076351264063334</v>
+        <v>0.8042428843045286</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.911888653490905</v>
+        <v>1.971277061735037</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.808136717430443</v>
+        <v>4.419011395605196</v>
       </c>
       <c r="C23">
-        <v>0.2612704166854485</v>
+        <v>0.7128850770922952</v>
       </c>
       <c r="D23">
-        <v>0.1297951273407634</v>
+        <v>0.07192906603292215</v>
       </c>
       <c r="E23">
-        <v>0.1179745783550263</v>
+        <v>0.03628346626275114</v>
       </c>
       <c r="F23">
-        <v>1.539974469009096</v>
+        <v>0.7724702172400129</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9114896267982608</v>
+        <v>0.2880505357051568</v>
       </c>
       <c r="J23">
-        <v>0.14927167689663</v>
+        <v>0.05939375622482679</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3370431274246499</v>
+        <v>0.3115559928727549</v>
       </c>
       <c r="M23">
-        <v>0.3991547018611001</v>
+        <v>0.7749421089623851</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.920528026319658</v>
+        <v>1.944785114444414</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.61565661023235</v>
+        <v>3.782008288024315</v>
       </c>
       <c r="C24">
-        <v>0.2318632508307985</v>
+        <v>0.6215884156218578</v>
       </c>
       <c r="D24">
-        <v>0.1288326556931096</v>
+        <v>0.06618020861032647</v>
       </c>
       <c r="E24">
-        <v>0.1192414027837674</v>
+        <v>0.03814399176172856</v>
       </c>
       <c r="F24">
-        <v>1.551661750480015</v>
+        <v>0.7350530838502323</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9293585674073128</v>
+        <v>0.3032817707321733</v>
       </c>
       <c r="J24">
-        <v>0.1506465509866182</v>
+        <v>0.06174072885900905</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3285756707427652</v>
+        <v>0.2748267248297651</v>
       </c>
       <c r="M24">
-        <v>0.3671066309102358</v>
+        <v>0.664602006435679</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.957651333982852</v>
+        <v>1.85694463545741</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.408062899650133</v>
+        <v>3.099681914500536</v>
       </c>
       <c r="C25">
-        <v>0.1999188834311667</v>
+        <v>0.523561261208414</v>
       </c>
       <c r="D25">
-        <v>0.1279032070290782</v>
+        <v>0.06015763759479853</v>
       </c>
       <c r="E25">
-        <v>0.1207244759200994</v>
+        <v>0.04031328676063239</v>
       </c>
       <c r="F25">
-        <v>1.567658865321242</v>
+        <v>0.7028447984368071</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9507576211714124</v>
+        <v>0.3246748380371152</v>
       </c>
       <c r="J25">
-        <v>0.1522704618071167</v>
+        <v>0.06449812076209049</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3197959785234161</v>
+        <v>0.2360360412325235</v>
       </c>
       <c r="M25">
-        <v>0.3326996615312225</v>
+        <v>0.546645778482123</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.007084861261262</v>
+        <v>1.786083931397542</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.599877348393591</v>
+        <v>0.8035377543039033</v>
       </c>
       <c r="C2">
-        <v>0.4515638315071726</v>
+        <v>0.1513162549151446</v>
       </c>
       <c r="D2">
-        <v>0.05585826025967577</v>
+        <v>0.1496770698322649</v>
       </c>
       <c r="E2">
-        <v>0.04204650406652366</v>
+        <v>0.1072880722983314</v>
       </c>
       <c r="F2">
-        <v>0.6852889589673694</v>
+        <v>0.825574952317865</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.005682727066255</v>
       </c>
       <c r="I2">
-        <v>0.3442445198377087</v>
+        <v>0.005662364215377025</v>
       </c>
       <c r="J2">
-        <v>0.06671578574797365</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4076469291004017</v>
       </c>
       <c r="L2">
-        <v>0.2080610758114148</v>
+        <v>0.1120534130521307</v>
       </c>
       <c r="M2">
-        <v>0.4604288824535558</v>
+        <v>0.9046977920715733</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.751869592037053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3219474168878449</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.973162421438403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.262087948166311</v>
+        <v>0.7007558946993697</v>
       </c>
       <c r="C3">
-        <v>0.4027898009420028</v>
+        <v>0.1329272491040001</v>
       </c>
       <c r="D3">
-        <v>0.05302042441573462</v>
+        <v>0.1326430970214147</v>
       </c>
       <c r="E3">
-        <v>0.04330419530583018</v>
+        <v>0.09678218444389941</v>
       </c>
       <c r="F3">
-        <v>0.6768439346856496</v>
+        <v>0.7999398741683024</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00781603464574282</v>
       </c>
       <c r="I3">
-        <v>0.3596823997611764</v>
+        <v>0.007482871856603346</v>
       </c>
       <c r="J3">
-        <v>0.06833253175326703</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.409788160652365</v>
       </c>
       <c r="L3">
-        <v>0.1894113287071519</v>
+        <v>0.1026039590982961</v>
       </c>
       <c r="M3">
-        <v>0.4022683184942011</v>
+        <v>0.7900834464172704</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.738706331346918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2809532847988905</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.946979870376055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.054941790346163</v>
+        <v>0.6374078209368008</v>
       </c>
       <c r="C4">
-        <v>0.3728245631135678</v>
+        <v>0.1217953856507563</v>
       </c>
       <c r="D4">
-        <v>0.05131292371098439</v>
+        <v>0.1222400912866561</v>
       </c>
       <c r="E4">
-        <v>0.04411684267860294</v>
+        <v>0.09033021996302182</v>
       </c>
       <c r="F4">
-        <v>0.67324227850348</v>
+        <v>0.7846425316901318</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.009352008410380155</v>
       </c>
       <c r="I4">
-        <v>0.3701706968075982</v>
+        <v>0.00881420666209598</v>
       </c>
       <c r="J4">
-        <v>0.06938040858965522</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4113078707808384</v>
       </c>
       <c r="L4">
-        <v>0.1780957573962212</v>
+        <v>0.09676296045219601</v>
       </c>
       <c r="M4">
-        <v>0.3666529618048955</v>
+        <v>0.7197306619966355</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.735206797073133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2558174134749471</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.932200680065392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.970566315821429</v>
+        <v>0.6112089468850002</v>
       </c>
       <c r="C5">
-        <v>0.3606054485326808</v>
+        <v>0.1176875928581467</v>
       </c>
       <c r="D5">
-        <v>0.05062555651616307</v>
+        <v>0.1181242602417427</v>
       </c>
       <c r="E5">
-        <v>0.04445808408558483</v>
+        <v>0.08771216923659608</v>
       </c>
       <c r="F5">
-        <v>0.6721560155657755</v>
+        <v>0.7778526652393509</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01003558914924435</v>
       </c>
       <c r="I5">
-        <v>0.3746895562568859</v>
+        <v>0.00949165956107656</v>
       </c>
       <c r="J5">
-        <v>0.06982116754368484</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.411534702555528</v>
       </c>
       <c r="L5">
-        <v>0.1735163332463046</v>
+        <v>0.09433644493996951</v>
       </c>
       <c r="M5">
-        <v>0.3521584717922224</v>
+        <v>0.6913765765199713</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.734882259272837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2456833706258124</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.924605373569975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.9565574000315</v>
+        <v>0.6064613412126789</v>
       </c>
       <c r="C6">
-        <v>0.3585758890008037</v>
+        <v>0.1174884692281069</v>
       </c>
       <c r="D6">
-        <v>0.05051192090749623</v>
+        <v>0.1175771430237518</v>
       </c>
       <c r="E6">
-        <v>0.04451535345600455</v>
+        <v>0.08729240455400955</v>
       </c>
       <c r="F6">
-        <v>0.6719982052012554</v>
+        <v>0.7759213015969024</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01015586996062778</v>
       </c>
       <c r="I6">
-        <v>0.3754544384392275</v>
+        <v>0.009716185435517666</v>
       </c>
       <c r="J6">
-        <v>0.06989518127429406</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4110352273465985</v>
       </c>
       <c r="L6">
-        <v>0.1727577771111726</v>
+        <v>0.09388916630779676</v>
       </c>
       <c r="M6">
-        <v>0.3497526851118806</v>
+        <v>0.687055085742756</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.734893461404369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2441265505678238</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.921057493967908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.053803752128886</v>
+        <v>0.6359764149779608</v>
       </c>
       <c r="C7">
-        <v>0.3726598089351398</v>
+        <v>0.1230548052468095</v>
       </c>
       <c r="D7">
-        <v>0.05130361983564313</v>
+        <v>0.1225553622560369</v>
       </c>
       <c r="E7">
-        <v>0.04412140406916754</v>
+        <v>0.09033623677886737</v>
       </c>
       <c r="F7">
-        <v>0.6732261059230922</v>
+        <v>0.78234020447006</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.009370023226956209</v>
       </c>
       <c r="I7">
-        <v>0.3702306601825534</v>
+        <v>0.009104133733549347</v>
       </c>
       <c r="J7">
-        <v>0.06938629735862101</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4098383890820116</v>
       </c>
       <c r="L7">
-        <v>0.1780338720138275</v>
+        <v>0.09661104478760052</v>
       </c>
       <c r="M7">
-        <v>0.3664574131963221</v>
+        <v>0.7204077672757165</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.735198025473068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2560243731113907</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.925810669091106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.483337395167609</v>
+        <v>0.7667048068627764</v>
       </c>
       <c r="C8">
-        <v>0.4347480007513695</v>
+        <v>0.1466948058929347</v>
       </c>
       <c r="D8">
-        <v>0.05487231454531383</v>
+        <v>0.1442849995264481</v>
       </c>
       <c r="E8">
-        <v>0.0424717163227486</v>
+        <v>0.1037210878996575</v>
       </c>
       <c r="F8">
-        <v>0.6820380829370052</v>
+        <v>0.8137302244762168</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.006379338837538162</v>
       </c>
       <c r="I8">
-        <v>0.3493524452709273</v>
+        <v>0.006581381702776667</v>
       </c>
       <c r="J8">
-        <v>0.06726170091324768</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4064114451496756</v>
       </c>
       <c r="L8">
-        <v>0.2016011019018649</v>
+        <v>0.1086456361271715</v>
       </c>
       <c r="M8">
-        <v>0.4403522133484898</v>
+        <v>0.8665853119422593</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.746348379581491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3082615387376748</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.955595264662392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.329026048887499</v>
+        <v>1.023244303766973</v>
       </c>
       <c r="C9">
-        <v>0.5565408483982139</v>
+        <v>0.1920833734537837</v>
       </c>
       <c r="D9">
-        <v>0.06216420448009785</v>
+        <v>0.1867317233752317</v>
       </c>
       <c r="E9">
-        <v>0.03956119305940398</v>
+        <v>0.1299198384186475</v>
       </c>
       <c r="F9">
-        <v>0.7126830680512697</v>
+        <v>0.8829540429873575</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002394871419829858</v>
       </c>
       <c r="I9">
-        <v>0.3168466258995224</v>
+        <v>0.002995024267276492</v>
       </c>
       <c r="J9">
-        <v>0.06353974279950059</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4039909733793294</v>
       </c>
       <c r="L9">
-        <v>0.2490036829272384</v>
+        <v>0.1321831268039446</v>
       </c>
       <c r="M9">
-        <v>0.5862633160300774</v>
+        <v>1.151778535606894</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.806998574847711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4104654846591416</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2.036028153965134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.954453209955432</v>
+        <v>1.213086758164593</v>
       </c>
       <c r="C10">
-        <v>0.6463225425530652</v>
+        <v>0.2264842536305167</v>
       </c>
       <c r="D10">
-        <v>0.06772561336120475</v>
+        <v>0.2138736851365621</v>
       </c>
       <c r="E10">
-        <v>0.03762603622993588</v>
+        <v>0.1430792569380444</v>
       </c>
       <c r="F10">
-        <v>0.7445249469851234</v>
+        <v>0.9211870190843996</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001022767850667794</v>
       </c>
       <c r="I10">
-        <v>0.2987345333941462</v>
+        <v>0.001738335056614027</v>
       </c>
       <c r="J10">
-        <v>0.06108559441832995</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3978151206916998</v>
       </c>
       <c r="L10">
-        <v>0.2847245171736859</v>
+        <v>0.141521937018048</v>
       </c>
       <c r="M10">
-        <v>0.6944532025845902</v>
+        <v>1.363993275388168</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.878777533714896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4777428934463117</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2.07131163160534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.240362295264049</v>
+        <v>1.322505453306036</v>
       </c>
       <c r="C11">
-        <v>0.6872995147030565</v>
+        <v>0.2386133085113471</v>
       </c>
       <c r="D11">
-        <v>0.07030598657532039</v>
+        <v>0.1879795161932662</v>
       </c>
       <c r="E11">
-        <v>0.03679105051015963</v>
+        <v>0.1011329958676335</v>
       </c>
       <c r="F11">
-        <v>0.7613166137486544</v>
+        <v>0.8172394844109832</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01963010918803931</v>
       </c>
       <c r="I11">
-        <v>0.2918967106000352</v>
+        <v>0.001994549913873378</v>
       </c>
       <c r="J11">
-        <v>0.06003228584994424</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3534667342320077</v>
       </c>
       <c r="L11">
-        <v>0.3012099651581934</v>
+        <v>0.09017338942564024</v>
       </c>
       <c r="M11">
-        <v>0.7439776920280039</v>
+        <v>1.475403641171852</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.918194181838459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4376171494708458</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.843540203925045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.348873425976706</v>
+        <v>1.377749640679127</v>
       </c>
       <c r="C12">
-        <v>0.7028417892391587</v>
+        <v>0.2392843848110999</v>
       </c>
       <c r="D12">
-        <v>0.07129089531168376</v>
+        <v>0.1614685734102466</v>
       </c>
       <c r="E12">
-        <v>0.03648149385234944</v>
+        <v>0.07051311834602458</v>
       </c>
       <c r="F12">
-        <v>0.7680320606234758</v>
+        <v>0.7296890406910919</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05845156509874982</v>
       </c>
       <c r="I12">
-        <v>0.2895223711206114</v>
+        <v>0.00194063195387173</v>
       </c>
       <c r="J12">
-        <v>0.05964270693927354</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3219836393227773</v>
       </c>
       <c r="L12">
-        <v>0.3074901086513933</v>
+        <v>0.06138344361316683</v>
       </c>
       <c r="M12">
-        <v>0.7627837094420471</v>
+        <v>1.523440554563251</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.934169551735835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3908931069265549</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.663109631543364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.32549206863132</v>
+        <v>1.39223126255186</v>
       </c>
       <c r="C13">
-        <v>0.6994932647127996</v>
+        <v>0.2332538756277245</v>
       </c>
       <c r="D13">
-        <v>0.07107842295873468</v>
+        <v>0.13369263740816</v>
       </c>
       <c r="E13">
-        <v>0.03654786543484123</v>
+        <v>0.04696432281089891</v>
       </c>
       <c r="F13">
-        <v>0.7665694805107819</v>
+        <v>0.6462350212419992</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.114476082210885</v>
       </c>
       <c r="I13">
-        <v>0.2900239408580596</v>
+        <v>0.002007013830677806</v>
       </c>
       <c r="J13">
-        <v>0.05972619316996663</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.296137052083381</v>
       </c>
       <c r="L13">
-        <v>0.3061358419013942</v>
+        <v>0.0479498222389938</v>
       </c>
       <c r="M13">
-        <v>0.7587310456556224</v>
+        <v>1.526688108131111</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.930681031172469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3372774389848558</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.498402931855139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.249284435047173</v>
+        <v>1.383509242507586</v>
       </c>
       <c r="C14">
-        <v>0.6885776473080227</v>
+        <v>0.226435749612321</v>
       </c>
       <c r="D14">
-        <v>0.07038685660971566</v>
+        <v>0.1141766152689598</v>
       </c>
       <c r="E14">
-        <v>0.03676544944733262</v>
+        <v>0.03481093433726823</v>
       </c>
       <c r="F14">
-        <v>0.7618617963307344</v>
+        <v>0.5902617629664917</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1640796619436031</v>
       </c>
       <c r="I14">
-        <v>0.291696982859154</v>
+        <v>0.002207596513859933</v>
       </c>
       <c r="J14">
-        <v>0.06000004757577848</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2806903623186425</v>
       </c>
       <c r="L14">
-        <v>0.3017258642777279</v>
+        <v>0.04762484627027064</v>
       </c>
       <c r="M14">
-        <v>0.745523781836404</v>
+        <v>1.508999219714752</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.919487000714383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2973618570582133</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.39085912258993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.202638093904397</v>
+        <v>1.371999962698339</v>
       </c>
       <c r="C15">
-        <v>0.6818949765626314</v>
+        <v>0.223909736184396</v>
       </c>
       <c r="D15">
-        <v>0.06996428125559362</v>
+        <v>0.109088832151869</v>
       </c>
       <c r="E15">
-        <v>0.03689959348090488</v>
+        <v>0.03239289746514196</v>
       </c>
       <c r="F15">
-        <v>0.7590254469447046</v>
+        <v>0.5763613744890606</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1767077524297775</v>
       </c>
       <c r="I15">
-        <v>0.2927501842495133</v>
+        <v>0.002414769606652101</v>
       </c>
       <c r="J15">
-        <v>0.06016900722092977</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2774771582673967</v>
       </c>
       <c r="L15">
-        <v>0.2990296141330333</v>
+        <v>0.04867227238234584</v>
       </c>
       <c r="M15">
-        <v>0.7374409880363615</v>
+        <v>1.495489693123801</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.912769328298054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2861338350342351</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.365198077250469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.935800078514092</v>
+        <v>1.285682641236974</v>
       </c>
       <c r="C16">
-        <v>0.6436477986788702</v>
+        <v>0.2111553763250384</v>
       </c>
       <c r="D16">
-        <v>0.06755803894966306</v>
+        <v>0.1040141402318397</v>
       </c>
       <c r="E16">
-        <v>0.03768152641009692</v>
+        <v>0.03219882343138991</v>
       </c>
       <c r="F16">
-        <v>0.7434760938240501</v>
+        <v>0.5764291971191327</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.164599759265883</v>
       </c>
       <c r="I16">
-        <v>0.299210731838162</v>
+        <v>0.00300812730180855</v>
       </c>
       <c r="J16">
-        <v>0.06115571813918308</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2843424946174178</v>
       </c>
       <c r="L16">
-        <v>0.283652197552513</v>
+        <v>0.04768057290930017</v>
       </c>
       <c r="M16">
-        <v>0.6912235208436854</v>
+        <v>1.403396795628311</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.87634408494543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2698583219208999</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.380034323937494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.772491047974825</v>
+        <v>1.224275632765199</v>
       </c>
       <c r="C17">
-        <v>0.6202229004809112</v>
+        <v>0.2050784147164819</v>
       </c>
       <c r="D17">
-        <v>0.06609516982030073</v>
+        <v>0.1102269453464686</v>
       </c>
       <c r="E17">
-        <v>0.03817290710588983</v>
+        <v>0.03771799559437383</v>
       </c>
       <c r="F17">
-        <v>0.7345451676213202</v>
+        <v>0.6056106130350756</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.127179098573535</v>
       </c>
       <c r="I17">
-        <v>0.3035423029892179</v>
+        <v>0.003404095953258413</v>
       </c>
       <c r="J17">
-        <v>0.06177734068519314</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2976146061858422</v>
       </c>
       <c r="L17">
-        <v>0.2742815000941476</v>
+        <v>0.04559308679861207</v>
       </c>
       <c r="M17">
-        <v>0.6629549582433185</v>
+        <v>1.342421930901452</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.855783506064711</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2781424043394765</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.44758112133627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.678688973597559</v>
+        <v>1.178599920639329</v>
       </c>
       <c r="C18">
-        <v>0.6067618343388119</v>
+        <v>0.2028399698113219</v>
       </c>
       <c r="D18">
-        <v>0.06525848225153652</v>
+        <v>0.1275626684896451</v>
       </c>
       <c r="E18">
-        <v>0.03845979534369448</v>
+        <v>0.05257995824646322</v>
       </c>
       <c r="F18">
-        <v>0.7296238405789381</v>
+        <v>0.6672763201869287</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07437711084040188</v>
       </c>
       <c r="I18">
-        <v>0.3061647595747203</v>
+        <v>0.003300926566890183</v>
       </c>
       <c r="J18">
-        <v>0.06214080679815481</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3200217755030401</v>
       </c>
       <c r="L18">
-        <v>0.2689136955090135</v>
+        <v>0.05030453084650244</v>
       </c>
       <c r="M18">
-        <v>0.6467241495970484</v>
+        <v>1.300359032027416</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.844589373066668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3094472931210035</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.577429439678198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.646950115451432</v>
+        <v>1.147117202524043</v>
       </c>
       <c r="C19">
-        <v>0.6022060950644459</v>
+        <v>0.2064040331357972</v>
       </c>
       <c r="D19">
-        <v>0.06497598896602597</v>
+        <v>0.1547368975813441</v>
       </c>
       <c r="E19">
-        <v>0.03855765882223894</v>
+        <v>0.07970816753702792</v>
       </c>
       <c r="F19">
-        <v>0.7279938406767386</v>
+        <v>0.7519648034103525</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02874546773355746</v>
       </c>
       <c r="I19">
-        <v>0.3070747914720613</v>
+        <v>0.003345499718660605</v>
       </c>
       <c r="J19">
-        <v>0.06226488159498444</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.348255396796489</v>
       </c>
       <c r="L19">
-        <v>0.2670999192136918</v>
+        <v>0.071959178655014</v>
       </c>
       <c r="M19">
-        <v>0.6412333466549569</v>
+        <v>1.278877548601741</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.840905497692717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3596871957578216</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.747950331784935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.789861929886342</v>
+        <v>1.15992529951734</v>
       </c>
       <c r="C20">
-        <v>0.6227152057962542</v>
+        <v>0.2215845345143208</v>
       </c>
       <c r="D20">
-        <v>0.06625040299223173</v>
+        <v>0.2077025177623</v>
       </c>
       <c r="E20">
-        <v>0.03812015717232997</v>
+        <v>0.1394928200820935</v>
       </c>
       <c r="F20">
-        <v>0.7354733997141878</v>
+        <v>0.9036354546405789</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001292104763831237</v>
       </c>
       <c r="I20">
-        <v>0.3030675419795443</v>
+        <v>0.002816035457734678</v>
       </c>
       <c r="J20">
-        <v>0.06171055316504592</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3947550624631972</v>
       </c>
       <c r="L20">
-        <v>0.275276727901101</v>
+        <v>0.1383827320858941</v>
       </c>
       <c r="M20">
-        <v>0.6659611884515968</v>
+        <v>1.311666013316795</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.85790629275445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.460795438622668</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2.041308610515046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.271661499431161</v>
+        <v>1.301796301096687</v>
       </c>
       <c r="C21">
-        <v>0.6917830966179679</v>
+        <v>0.2485510313575787</v>
       </c>
       <c r="D21">
-        <v>0.07058977097909747</v>
+        <v>0.2355860288158453</v>
       </c>
       <c r="E21">
-        <v>0.0367013587368592</v>
+        <v>0.1591624417859236</v>
       </c>
       <c r="F21">
-        <v>0.7632346644693158</v>
+        <v>0.957245879008866</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0002967705574719037</v>
       </c>
       <c r="I21">
-        <v>0.2911996228370164</v>
+        <v>0.002056141769611664</v>
       </c>
       <c r="J21">
-        <v>0.0599193561017195</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3988438177212856</v>
       </c>
       <c r="L21">
-        <v>0.3030201352988655</v>
+        <v>0.1576367669824492</v>
       </c>
       <c r="M21">
-        <v>0.7494015940905427</v>
+        <v>1.471935791008576</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.922745848022089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.525325563923694</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.118863405813272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.587987208635582</v>
+        <v>1.397294213810881</v>
       </c>
       <c r="C22">
-        <v>0.73707279782775</v>
+        <v>0.2643180908642648</v>
       </c>
       <c r="D22">
-        <v>0.07347140289041931</v>
+        <v>0.2510605247400832</v>
       </c>
       <c r="E22">
-        <v>0.0358128203613659</v>
+        <v>0.1688420571761711</v>
       </c>
       <c r="F22">
-        <v>0.7834709904458492</v>
+        <v>0.9884812511737948</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.835335504305149E-05</v>
       </c>
       <c r="I22">
-        <v>0.2847033681547444</v>
+        <v>0.001509366823210456</v>
       </c>
       <c r="J22">
-        <v>0.05880294204917291</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4011324193558394</v>
       </c>
       <c r="L22">
-        <v>0.3213722564926229</v>
+        <v>0.1664072979686253</v>
       </c>
       <c r="M22">
-        <v>0.8042428843045286</v>
+        <v>1.576270386138987</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.971277061735037</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5629073813203576</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.164743728078975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.419011395605196</v>
+        <v>1.347652217773714</v>
       </c>
       <c r="C23">
-        <v>0.7128850770922952</v>
+        <v>0.2542643704582872</v>
       </c>
       <c r="D23">
-        <v>0.07192906603292215</v>
+        <v>0.2423435081268366</v>
       </c>
       <c r="E23">
-        <v>0.03628346626275114</v>
+        <v>0.1636208097978766</v>
       </c>
       <c r="F23">
-        <v>0.7724702172400129</v>
+        <v>0.9743057703907425</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001531140440955703</v>
       </c>
       <c r="I23">
-        <v>0.2880505357051568</v>
+        <v>0.001462137276281972</v>
       </c>
       <c r="J23">
-        <v>0.05939375622482679</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4015481060044905</v>
       </c>
       <c r="L23">
-        <v>0.3115559928727549</v>
+        <v>0.1618656669038216</v>
       </c>
       <c r="M23">
-        <v>0.7749421089623851</v>
+        <v>1.519267087296214</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.944785114444414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5424221262861266</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.147286466330343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.782008288024315</v>
+        <v>1.157427610836862</v>
       </c>
       <c r="C24">
-        <v>0.6215884156218578</v>
+        <v>0.2192165769641576</v>
       </c>
       <c r="D24">
-        <v>0.06618020861032647</v>
+        <v>0.2102273187506825</v>
       </c>
       <c r="E24">
-        <v>0.03814399176172856</v>
+        <v>0.1439900964217031</v>
       </c>
       <c r="F24">
-        <v>0.7350530838502323</v>
+        <v>0.9178732307219306</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001117054609775403</v>
       </c>
       <c r="I24">
-        <v>0.3032817707321733</v>
+        <v>0.002295875083149213</v>
       </c>
       <c r="J24">
-        <v>0.06174072885900905</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4010564259313796</v>
       </c>
       <c r="L24">
-        <v>0.2748267248297651</v>
+        <v>0.14444213135355</v>
       </c>
       <c r="M24">
-        <v>0.664602006435679</v>
+        <v>1.305946203001099</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.85694463545741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4657418458782558</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>2.073442403252159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.099681914500536</v>
+        <v>0.9520189876009226</v>
       </c>
       <c r="C25">
-        <v>0.523561261208414</v>
+        <v>0.1820637939880783</v>
       </c>
       <c r="D25">
-        <v>0.06015763759479853</v>
+        <v>0.1758660878280551</v>
       </c>
       <c r="E25">
-        <v>0.04031328676063239</v>
+        <v>0.1229016278508936</v>
       </c>
       <c r="F25">
-        <v>0.7028447984368071</v>
+        <v>0.8598444464642441</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003264346437902299</v>
       </c>
       <c r="I25">
-        <v>0.3246748380371152</v>
+        <v>0.004227864994771124</v>
       </c>
       <c r="J25">
-        <v>0.06449812076209049</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.401856466760119</v>
       </c>
       <c r="L25">
-        <v>0.2360360412325235</v>
+        <v>0.1256257565350793</v>
       </c>
       <c r="M25">
-        <v>0.546645778482123</v>
+        <v>1.076486206780345</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.786083931397542</v>
+        <v>0.3833880639918448</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>2.001845237432804</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8035377543039033</v>
+        <v>0.7944230102677921</v>
       </c>
       <c r="C2">
-        <v>0.1513162549151446</v>
+        <v>0.1678068388442284</v>
       </c>
       <c r="D2">
-        <v>0.1496770698322649</v>
+        <v>0.1585056319664204</v>
       </c>
       <c r="E2">
-        <v>0.1072880722983314</v>
+        <v>0.1101781663289749</v>
       </c>
       <c r="F2">
-        <v>0.825574952317865</v>
+        <v>0.7708233508380147</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.005682727066255</v>
+        <v>0.004843176689741491</v>
       </c>
       <c r="I2">
-        <v>0.005662364215377025</v>
+        <v>0.003859444376892895</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>0.4076469291004017</v>
+        <v>0.3595509870045248</v>
       </c>
       <c r="L2">
-        <v>0.1120534130521307</v>
+        <v>0.1680133386199572</v>
       </c>
       <c r="M2">
-        <v>0.9046977920715733</v>
+        <v>0.1059561686691577</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1122448409438945</v>
       </c>
       <c r="O2">
-        <v>0.3219474168878449</v>
+        <v>0.9273414490256471</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.973162421438403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3289540327970286</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.802576156583697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7007558946993697</v>
+        <v>0.6956466971099928</v>
       </c>
       <c r="C3">
-        <v>0.1329272491040001</v>
+        <v>0.1442230155341235</v>
       </c>
       <c r="D3">
-        <v>0.1326430970214147</v>
+        <v>0.1402190900453633</v>
       </c>
       <c r="E3">
-        <v>0.09678218444389941</v>
+        <v>0.0996013527715931</v>
       </c>
       <c r="F3">
-        <v>0.7999398741683024</v>
+        <v>0.7510805977386212</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.00781603464574282</v>
+        <v>0.006746644495311982</v>
       </c>
       <c r="I3">
-        <v>0.007482871856603346</v>
+        <v>0.005163654506653792</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.409788160652365</v>
+        <v>0.3644145925059838</v>
       </c>
       <c r="L3">
-        <v>0.1026039590982961</v>
+        <v>0.173138906164013</v>
       </c>
       <c r="M3">
-        <v>0.7900834464172704</v>
+        <v>0.105985212618922</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.103290261566471</v>
       </c>
       <c r="O3">
-        <v>0.2809532847988905</v>
+        <v>0.8085848329861278</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.946979870376055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2866413402566081</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.791406424410852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6374078209368008</v>
+        <v>0.6346749724093286</v>
       </c>
       <c r="C4">
-        <v>0.1217953856507563</v>
+        <v>0.1300201273128039</v>
       </c>
       <c r="D4">
-        <v>0.1222400912866561</v>
+        <v>0.1290691205658447</v>
       </c>
       <c r="E4">
-        <v>0.09033021996302182</v>
+        <v>0.09310855235997195</v>
       </c>
       <c r="F4">
-        <v>0.7846425316901318</v>
+        <v>0.739300583157501</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.009352008410380155</v>
+        <v>0.008123774617035867</v>
       </c>
       <c r="I4">
-        <v>0.00881420666209598</v>
+        <v>0.006144082279186058</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.4113078707808384</v>
+        <v>0.3675424715344668</v>
       </c>
       <c r="L4">
-        <v>0.09676296045219601</v>
+        <v>0.1763789075266473</v>
       </c>
       <c r="M4">
-        <v>0.7197306619966355</v>
+        <v>0.1065255902588689</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09774832484141172</v>
       </c>
       <c r="O4">
-        <v>0.2558174134749471</v>
+        <v>0.7357238855723409</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.932200680065392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2607076017878427</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.785560212756423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6112089468850002</v>
+        <v>0.6094368153856351</v>
       </c>
       <c r="C5">
-        <v>0.1176875928581467</v>
+        <v>0.124707262468192</v>
       </c>
       <c r="D5">
-        <v>0.1181242602417427</v>
+        <v>0.1246525219584953</v>
       </c>
       <c r="E5">
-        <v>0.08771216923659608</v>
+        <v>0.09047410026315816</v>
       </c>
       <c r="F5">
-        <v>0.7778526652393509</v>
+        <v>0.7339646938478381</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01003558914924435</v>
+        <v>0.008738048801756285</v>
       </c>
       <c r="I5">
-        <v>0.00949165956107656</v>
+        <v>0.0066814942660125</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.411534702555528</v>
+        <v>0.3684597681405961</v>
       </c>
       <c r="L5">
-        <v>0.09433644493996951</v>
+        <v>0.1775237003667023</v>
       </c>
       <c r="M5">
-        <v>0.6913765765199713</v>
+        <v>0.1067808289566603</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09544391604102032</v>
       </c>
       <c r="O5">
-        <v>0.2456833706258124</v>
+        <v>0.706348656741568</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.924605373569975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2502487163540117</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.781690063481321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6064613412126789</v>
+        <v>0.6048629126784988</v>
       </c>
       <c r="C6">
-        <v>0.1174884692281069</v>
+        <v>0.1243309802989785</v>
       </c>
       <c r="D6">
-        <v>0.1175771430237518</v>
+        <v>0.1240534185451878</v>
       </c>
       <c r="E6">
-        <v>0.08729240455400955</v>
+        <v>0.09005104875364722</v>
       </c>
       <c r="F6">
-        <v>0.7759213015969024</v>
+        <v>0.7323291842248025</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01015586996062778</v>
+        <v>0.008846221617747105</v>
       </c>
       <c r="I6">
-        <v>0.009716185435517666</v>
+        <v>0.006897455302092403</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.4110352273465985</v>
+        <v>0.3681365202805971</v>
       </c>
       <c r="L6">
-        <v>0.09388916630779676</v>
+        <v>0.177473457891967</v>
       </c>
       <c r="M6">
-        <v>0.687055085742756</v>
+        <v>0.1067136661809638</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09501850898766406</v>
       </c>
       <c r="O6">
-        <v>0.2441265505678238</v>
+        <v>0.701847778246929</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.921057493967908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2486346929418701</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.778947546154015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6359764149779608</v>
+        <v>0.6332995791058238</v>
       </c>
       <c r="C7">
-        <v>0.1230548052468095</v>
+        <v>0.1313260752160375</v>
       </c>
       <c r="D7">
-        <v>0.1225553622560369</v>
+        <v>0.1293741159764323</v>
       </c>
       <c r="E7">
-        <v>0.09033623677886737</v>
+        <v>0.093112708526359</v>
       </c>
       <c r="F7">
-        <v>0.78234020447006</v>
+        <v>0.7371743955310421</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.009370023226956209</v>
+        <v>0.008139965294501283</v>
       </c>
       <c r="I7">
-        <v>0.009104133733549347</v>
+        <v>0.006471263095845892</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.4098383890820116</v>
+        <v>0.3662588578979964</v>
       </c>
       <c r="L7">
-        <v>0.09661104478760052</v>
+        <v>0.1757556527188697</v>
       </c>
       <c r="M7">
-        <v>0.7204077672757165</v>
+        <v>0.1061925193631854</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09760271700356071</v>
       </c>
       <c r="O7">
-        <v>0.2560243731113907</v>
+        <v>0.7363592202717513</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.925810669091106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2609008052876547</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.779757141288897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7667048068627764</v>
+        <v>0.7590499114206182</v>
       </c>
       <c r="C8">
-        <v>0.1466948058929347</v>
+        <v>0.1614724318718288</v>
       </c>
       <c r="D8">
-        <v>0.1442849995264481</v>
+        <v>0.1526701039075817</v>
       </c>
       <c r="E8">
-        <v>0.1037210878996575</v>
+        <v>0.106584157750941</v>
       </c>
       <c r="F8">
-        <v>0.8137302244762168</v>
+        <v>0.7612533673995827</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006379338837538162</v>
+        <v>0.005463284078352115</v>
       </c>
       <c r="I8">
-        <v>0.006581381702776667</v>
+        <v>0.004657125082341729</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.4064114451496756</v>
+        <v>0.3595239328026416</v>
       </c>
       <c r="L8">
-        <v>0.1086456361271715</v>
+        <v>0.1690069724066277</v>
       </c>
       <c r="M8">
-        <v>0.8665853119422593</v>
+        <v>0.1053523642549656</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1090154270562849</v>
       </c>
       <c r="O8">
-        <v>0.3082615387376748</v>
+        <v>0.8877587119908981</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.955595264662392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3147990816569006</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.791013766148382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.023244303766973</v>
+        <v>1.005050631815436</v>
       </c>
       <c r="C9">
-        <v>0.1920833734537837</v>
+        <v>0.2204453624174221</v>
       </c>
       <c r="D9">
-        <v>0.1867317233752317</v>
+        <v>0.1983723686090286</v>
       </c>
       <c r="E9">
-        <v>0.1299198384186475</v>
+        <v>0.1329742883988381</v>
       </c>
       <c r="F9">
-        <v>0.8829540429873575</v>
+        <v>0.815019882722865</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.002394871419829858</v>
+        <v>0.001947635975629969</v>
       </c>
       <c r="I9">
-        <v>0.002995024267276492</v>
+        <v>0.002111845293820025</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.4039909733793294</v>
+        <v>0.3497532559149903</v>
       </c>
       <c r="L9">
-        <v>0.1321831268039446</v>
+        <v>0.1575062997163457</v>
       </c>
       <c r="M9">
-        <v>1.151778535606894</v>
+        <v>0.1085863555873807</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1312819171566346</v>
       </c>
       <c r="O9">
-        <v>0.4104654846591416</v>
+        <v>1.183490093951974</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.036028153965134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4203621398089012</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.831751538810067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.213086758164593</v>
+        <v>1.187135889008317</v>
       </c>
       <c r="C10">
-        <v>0.2264842536305167</v>
+        <v>0.2648188267226601</v>
       </c>
       <c r="D10">
-        <v>0.2138736851365621</v>
+        <v>0.2276998758586899</v>
       </c>
       <c r="E10">
-        <v>0.1430792569380444</v>
+        <v>0.1462094521540394</v>
       </c>
       <c r="F10">
-        <v>0.9211870190843996</v>
+        <v>0.8431175067796772</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.001022767850667794</v>
+        <v>0.0008067662285009547</v>
       </c>
       <c r="I10">
-        <v>0.001738335056614027</v>
+        <v>0.001438387308611233</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3978151206916998</v>
+        <v>0.3391494104615127</v>
       </c>
       <c r="L10">
-        <v>0.141521937018048</v>
+        <v>0.1480427864297322</v>
       </c>
       <c r="M10">
-        <v>1.363993275388168</v>
+        <v>0.1118389131952675</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1398152413073817</v>
       </c>
       <c r="O10">
-        <v>0.4777428934463117</v>
+        <v>1.403093904519181</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.07131163160534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4898794557114385</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.841377258957664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.322505453306036</v>
+        <v>1.296874098126665</v>
       </c>
       <c r="C11">
-        <v>0.2386133085113471</v>
+        <v>0.2755698046729833</v>
       </c>
       <c r="D11">
-        <v>0.1879795161932662</v>
+        <v>0.2001788698010358</v>
       </c>
       <c r="E11">
-        <v>0.1011329958676335</v>
+        <v>0.1037049351945427</v>
       </c>
       <c r="F11">
-        <v>0.8172394844109832</v>
+        <v>0.7486602880435527</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01963010918803931</v>
+        <v>0.01941838859125866</v>
       </c>
       <c r="I11">
-        <v>0.001994549913873378</v>
+        <v>0.001932507210600676</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.3534667342320077</v>
+        <v>0.3028921354607554</v>
       </c>
       <c r="L11">
-        <v>0.09017338942564024</v>
+        <v>0.1333081939030105</v>
       </c>
       <c r="M11">
-        <v>1.475403641171852</v>
+        <v>0.1005513752523903</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08940370570028122</v>
       </c>
       <c r="O11">
-        <v>0.4376171494708458</v>
+        <v>1.513758152282406</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.843540203925045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4485083574165216</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.641724798207093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.377749640679127</v>
+        <v>1.354160628840958</v>
       </c>
       <c r="C12">
-        <v>0.2392843848110999</v>
+        <v>0.2726604075636772</v>
       </c>
       <c r="D12">
-        <v>0.1614685734102466</v>
+        <v>0.1719399823219021</v>
       </c>
       <c r="E12">
-        <v>0.07051311834602458</v>
+        <v>0.07264425768234162</v>
       </c>
       <c r="F12">
-        <v>0.7296890406910919</v>
+        <v>0.6703808521773595</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05845156509874982</v>
+        <v>0.05822189171286141</v>
       </c>
       <c r="I12">
-        <v>0.00194063195387173</v>
+        <v>0.001903508233039197</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.3219836393227773</v>
+        <v>0.2782975433511616</v>
       </c>
       <c r="L12">
-        <v>0.06138344361316683</v>
+        <v>0.1245229991725214</v>
       </c>
       <c r="M12">
-        <v>1.523440554563251</v>
+        <v>0.0913592820986775</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06144549004073241</v>
       </c>
       <c r="O12">
-        <v>0.3908931069265549</v>
+        <v>1.559454182332047</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.663109631543364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4003438288163821</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.487749341775626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.39223126255186</v>
+        <v>1.372227253739851</v>
       </c>
       <c r="C13">
-        <v>0.2332538756277245</v>
+        <v>0.2613536207872187</v>
       </c>
       <c r="D13">
-        <v>0.13369263740816</v>
+        <v>0.1422931983706945</v>
       </c>
       <c r="E13">
-        <v>0.04696432281089891</v>
+        <v>0.0487236680617773</v>
       </c>
       <c r="F13">
-        <v>0.6462350212419992</v>
+        <v>0.5966690698773363</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.114476082210885</v>
+        <v>0.114205534729436</v>
       </c>
       <c r="I13">
-        <v>0.002007013830677806</v>
+        <v>0.001908075592745639</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.296137052083381</v>
+        <v>0.2590457541408906</v>
       </c>
       <c r="L13">
-        <v>0.0479498222389938</v>
+        <v>0.1184827942366002</v>
       </c>
       <c r="M13">
-        <v>1.526688108131111</v>
+        <v>0.08275337845347686</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04877053788955044</v>
       </c>
       <c r="O13">
-        <v>0.3372774389848558</v>
+        <v>1.558969128798935</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.498402931855139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3450679767722917</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.350316447761685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.383509242507586</v>
+        <v>1.366725430692838</v>
       </c>
       <c r="C14">
-        <v>0.226435749612321</v>
+        <v>0.2501427011993371</v>
       </c>
       <c r="D14">
-        <v>0.1141766152689598</v>
+        <v>0.1214462282997602</v>
       </c>
       <c r="E14">
-        <v>0.03481093433726823</v>
+        <v>0.03635220006677109</v>
       </c>
       <c r="F14">
-        <v>0.5902617629664917</v>
+        <v>0.547541767337556</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1640796619436031</v>
+        <v>0.1637691198676094</v>
       </c>
       <c r="I14">
-        <v>0.002207596513859933</v>
+        <v>0.002037998549178077</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2806903623186425</v>
+        <v>0.2479648236639722</v>
       </c>
       <c r="L14">
-        <v>0.04762484627027064</v>
+        <v>0.1152956677286383</v>
       </c>
       <c r="M14">
-        <v>1.508999219714752</v>
+        <v>0.07718682117961784</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04890267234852352</v>
       </c>
       <c r="O14">
-        <v>0.2973618570582133</v>
+        <v>1.538028277819507</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.39085912258993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.303919869031688</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.261766557177992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.371999962698339</v>
+        <v>1.356315973255562</v>
       </c>
       <c r="C15">
-        <v>0.223909736184396</v>
+        <v>0.2462365257580359</v>
       </c>
       <c r="D15">
-        <v>0.109088832151869</v>
+        <v>0.1159970755801538</v>
       </c>
       <c r="E15">
-        <v>0.03239289746514196</v>
+        <v>0.03389125293059347</v>
       </c>
       <c r="F15">
-        <v>0.5763613744890606</v>
+        <v>0.5354955972147906</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1767077524297775</v>
+        <v>0.1763785810719156</v>
       </c>
       <c r="I15">
-        <v>0.002414769606652101</v>
+        <v>0.002228016447413772</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.2774771582673967</v>
+        <v>0.245850844893555</v>
       </c>
       <c r="L15">
-        <v>0.04867227238234584</v>
+        <v>0.1147989319612694</v>
       </c>
       <c r="M15">
-        <v>1.495489693123801</v>
+        <v>0.0758544761447979</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05005482874142153</v>
       </c>
       <c r="O15">
-        <v>0.2861338350342351</v>
+        <v>1.523447570598279</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.365198077250469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2923386164402402</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.241192135717085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.285682641236974</v>
+        <v>1.272643775341948</v>
       </c>
       <c r="C16">
-        <v>0.2111553763250384</v>
+        <v>0.2304383990800005</v>
       </c>
       <c r="D16">
-        <v>0.1040141402318397</v>
+        <v>0.1104883611358929</v>
       </c>
       <c r="E16">
-        <v>0.03219882343138991</v>
+        <v>0.03376072867901048</v>
       </c>
       <c r="F16">
-        <v>0.5764291971191327</v>
+        <v>0.5373857641526669</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.164599759265883</v>
+        <v>0.1641728777745755</v>
       </c>
       <c r="I16">
-        <v>0.00300812730180855</v>
+        <v>0.002631314830455977</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2843424946174178</v>
+        <v>0.2529551314734881</v>
       </c>
       <c r="L16">
-        <v>0.04768057290930017</v>
+        <v>0.118092113064205</v>
       </c>
       <c r="M16">
-        <v>1.403396795628311</v>
+        <v>0.07671467586147429</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04911416304392624</v>
       </c>
       <c r="O16">
-        <v>0.2698583219208999</v>
+        <v>1.428974655522381</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.380034323937494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2755260898858083</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.260182876353284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.224275632765199</v>
+        <v>1.211532358126277</v>
       </c>
       <c r="C17">
-        <v>0.2050784147164819</v>
+        <v>0.224350234793576</v>
       </c>
       <c r="D17">
-        <v>0.1102269453464686</v>
+        <v>0.1170367277618851</v>
       </c>
       <c r="E17">
-        <v>0.03771799559437383</v>
+        <v>0.03943507770405397</v>
       </c>
       <c r="F17">
-        <v>0.6056106130350756</v>
+        <v>0.564535072942185</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.127179098573535</v>
+        <v>0.126696414775779</v>
       </c>
       <c r="I17">
-        <v>0.003404095953258413</v>
+        <v>0.002916912092505441</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.2976146061858422</v>
+        <v>0.264245190708337</v>
       </c>
       <c r="L17">
-        <v>0.04559308679861207</v>
+        <v>0.1226168576570998</v>
       </c>
       <c r="M17">
-        <v>1.342421930901452</v>
+        <v>0.08009399121586114</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0468665395676231</v>
       </c>
       <c r="O17">
-        <v>0.2781424043394765</v>
+        <v>1.367908596766654</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.44758112133627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2840252961552565</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.321374669635503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.178599920639329</v>
+        <v>1.164227880725264</v>
       </c>
       <c r="C18">
-        <v>0.2028399698113219</v>
+        <v>0.2246064890195925</v>
       </c>
       <c r="D18">
-        <v>0.1275626684896451</v>
+        <v>0.135469026833448</v>
       </c>
       <c r="E18">
-        <v>0.05257995824646322</v>
+        <v>0.05457341149022277</v>
       </c>
       <c r="F18">
-        <v>0.6672763201869287</v>
+        <v>0.6201908833404488</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07437711084040188</v>
+        <v>0.07388617795147923</v>
       </c>
       <c r="I18">
-        <v>0.003300926566890183</v>
+        <v>0.002726071981395073</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.3200217755030401</v>
+        <v>0.2821312309383206</v>
       </c>
       <c r="L18">
-        <v>0.05030453084650244</v>
+        <v>0.1294849887592431</v>
       </c>
       <c r="M18">
-        <v>1.300359032027416</v>
+        <v>0.08640628362594427</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05115523175411951</v>
       </c>
       <c r="O18">
-        <v>0.3094472931210035</v>
+        <v>1.327665726563168</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.577429439678198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3162658831422576</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.433818649772491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.147117202524043</v>
+        <v>1.129880929068918</v>
       </c>
       <c r="C19">
-        <v>0.2064040331357972</v>
+        <v>0.2326286389851191</v>
       </c>
       <c r="D19">
-        <v>0.1547368975813441</v>
+        <v>0.1643855443105622</v>
       </c>
       <c r="E19">
-        <v>0.07970816753702792</v>
+        <v>0.08209550599370274</v>
       </c>
       <c r="F19">
-        <v>0.7519648034103525</v>
+        <v>0.6957245823081237</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02874546773355746</v>
+        <v>0.02830010153562768</v>
       </c>
       <c r="I19">
-        <v>0.003345499718660605</v>
+        <v>0.00282280135030355</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.348255396796489</v>
+        <v>0.3039154462429643</v>
       </c>
       <c r="L19">
-        <v>0.071959178655014</v>
+        <v>0.1376718173741107</v>
       </c>
       <c r="M19">
-        <v>1.278877548601741</v>
+        <v>0.09454729855501753</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07209280564073239</v>
       </c>
       <c r="O19">
-        <v>0.3596871957578216</v>
+        <v>1.309266888954369</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.747950331784935</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3680244342926429</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.57844306148408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.15992529951734</v>
+        <v>1.136227545992824</v>
       </c>
       <c r="C20">
-        <v>0.2215845345143208</v>
+        <v>0.257556974202231</v>
       </c>
       <c r="D20">
-        <v>0.2077025177623</v>
+        <v>0.2209255047018246</v>
       </c>
       <c r="E20">
-        <v>0.1394928200820935</v>
+        <v>0.1425959103966008</v>
       </c>
       <c r="F20">
-        <v>0.9036354546405789</v>
+        <v>0.8289092979674209</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001292104763831237</v>
+        <v>0.001020256922265705</v>
       </c>
       <c r="I20">
-        <v>0.002816035457734678</v>
+        <v>0.002526658049221808</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>0.3947550624631972</v>
+        <v>0.3380184535880773</v>
       </c>
       <c r="L20">
-        <v>0.1383827320858941</v>
+        <v>0.1490758310113645</v>
       </c>
       <c r="M20">
-        <v>1.311666013316795</v>
+        <v>0.109324147861372</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1369120794500134</v>
       </c>
       <c r="O20">
-        <v>0.460795438622668</v>
+        <v>1.348727237804582</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.041308610515046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4723044478146932</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.820442841368248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.301796301096687</v>
+        <v>1.271288913604593</v>
       </c>
       <c r="C21">
-        <v>0.2485510313575787</v>
+        <v>0.2934394386898589</v>
       </c>
       <c r="D21">
-        <v>0.2355860288158453</v>
+        <v>0.2510018824427789</v>
       </c>
       <c r="E21">
-        <v>0.1591624417859236</v>
+        <v>0.1624367209222939</v>
       </c>
       <c r="F21">
-        <v>0.957245879008866</v>
+        <v>0.8719331444487253</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0002967705574719037</v>
+        <v>0.0001856137302844729</v>
       </c>
       <c r="I21">
-        <v>0.002056141769611664</v>
+        <v>0.002131096976999203</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.3988438177212856</v>
+        <v>0.3366875955291349</v>
       </c>
       <c r="L21">
-        <v>0.1576367669824492</v>
+        <v>0.1444156984754486</v>
       </c>
       <c r="M21">
-        <v>1.471935791008576</v>
+        <v>0.1151223536782418</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1552926204759899</v>
       </c>
       <c r="O21">
-        <v>0.525325563923694</v>
+        <v>1.515412965288448</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.118863405813272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5389773929808612</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.870351276764751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.397294213810881</v>
+        <v>1.36237956010018</v>
       </c>
       <c r="C22">
-        <v>0.2643180908642648</v>
+        <v>0.3146533266116762</v>
       </c>
       <c r="D22">
-        <v>0.2510605247400832</v>
+        <v>0.2677756792415238</v>
       </c>
       <c r="E22">
-        <v>0.1688420571761711</v>
+        <v>0.1721935291857513</v>
       </c>
       <c r="F22">
-        <v>0.9884812511737948</v>
+        <v>0.8967151190521889</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.835335504305149E-05</v>
+        <v>1.404317835951296E-05</v>
       </c>
       <c r="I22">
-        <v>0.001509366823210456</v>
+        <v>0.001710518721581344</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.4011324193558394</v>
+        <v>0.3356491770548011</v>
       </c>
       <c r="L22">
-        <v>0.1664072979686253</v>
+        <v>0.1412752103810249</v>
       </c>
       <c r="M22">
-        <v>1.576270386138987</v>
+        <v>0.1193220523390792</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1635543909617567</v>
       </c>
       <c r="O22">
-        <v>0.5629073813203576</v>
+        <v>1.62374622378411</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.164743728078975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5778409146080037</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.899290072518255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.347652217773714</v>
+        <v>1.315034098292642</v>
       </c>
       <c r="C23">
-        <v>0.2542643704582872</v>
+        <v>0.3015444971796342</v>
       </c>
       <c r="D23">
-        <v>0.2423435081268366</v>
+        <v>0.2583672340852843</v>
       </c>
       <c r="E23">
-        <v>0.1636208097978766</v>
+        <v>0.1669326034009302</v>
       </c>
       <c r="F23">
-        <v>0.9743057703907425</v>
+        <v>0.8857612221615057</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0001531140440955703</v>
+        <v>8.026147402051542E-05</v>
       </c>
       <c r="I23">
-        <v>0.001462137276281972</v>
+        <v>0.001540456889248532</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.4015481060044905</v>
+        <v>0.3375657503724518</v>
       </c>
       <c r="L23">
-        <v>0.1618656669038216</v>
+        <v>0.1434006064485036</v>
       </c>
       <c r="M23">
-        <v>1.519267087296214</v>
+        <v>0.1176170807475465</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.159277719646596</v>
       </c>
       <c r="O23">
-        <v>0.5424221262861266</v>
+        <v>1.564635647394681</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.147286466330343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5566816437207862</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.890082577384959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.157427610836862</v>
+        <v>1.133403424378685</v>
       </c>
       <c r="C24">
-        <v>0.2192165769641576</v>
+        <v>0.2554116941487337</v>
       </c>
       <c r="D24">
-        <v>0.2102273187506825</v>
+        <v>0.2236655598291435</v>
       </c>
       <c r="E24">
-        <v>0.1439900964217031</v>
+        <v>0.147149448616986</v>
       </c>
       <c r="F24">
-        <v>0.9178732307219306</v>
+        <v>0.8416853027506548</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001117054609775403</v>
+        <v>0.0008527706785985689</v>
       </c>
       <c r="I24">
-        <v>0.002295875083149213</v>
+        <v>0.001912660236480512</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>0.4010564259313796</v>
+        <v>0.3430800167536248</v>
       </c>
       <c r="L24">
-        <v>0.14444213135355</v>
+        <v>0.1509744651787379</v>
       </c>
       <c r="M24">
-        <v>1.305946203001099</v>
+        <v>0.1112143199238673</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1428532889854779</v>
       </c>
       <c r="O24">
-        <v>0.4657418458782558</v>
+        <v>1.343307428064719</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.073442403252159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4774405238975632</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.848192164749065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9520189876009226</v>
+        <v>0.9368459267970763</v>
       </c>
       <c r="C25">
-        <v>0.1820637939880783</v>
+        <v>0.206812916122658</v>
       </c>
       <c r="D25">
-        <v>0.1758660878280551</v>
+        <v>0.1865995232625295</v>
       </c>
       <c r="E25">
-        <v>0.1229016278508936</v>
+        <v>0.1259000901538414</v>
       </c>
       <c r="F25">
-        <v>0.8598444464642441</v>
+        <v>0.7965081202817998</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.003264346437902299</v>
+        <v>0.002706183664548667</v>
       </c>
       <c r="I25">
-        <v>0.004227864994771124</v>
+        <v>0.003173457760246912</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.401856466760119</v>
+        <v>0.3500477846596723</v>
       </c>
       <c r="L25">
-        <v>0.1256257565350793</v>
+        <v>0.1596500341417624</v>
       </c>
       <c r="M25">
-        <v>1.076486206780345</v>
+        <v>0.1064806449017155</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1250835398775152</v>
       </c>
       <c r="O25">
-        <v>0.3833880639918448</v>
+        <v>1.105278790074465</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.001845237432804</v>
+        <v>0.3923517385451021</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.809700092127045</v>
       </c>
     </row>
   </sheetData>
